--- a/PCB/presupuestos/Nodo solar/presupuesto.xlsx
+++ b/PCB/presupuestos/Nodo solar/presupuesto.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="194">
   <si>
     <t>Ref (PCB)</t>
   </si>
@@ -569,19 +569,10 @@
     <t>Total:</t>
   </si>
   <si>
-    <t>Unique (SMD):</t>
-  </si>
-  <si>
     <t>Total (€):</t>
   </si>
   <si>
     <t>Envío TME (€):</t>
-  </si>
-  <si>
-    <t>Total SMD Assembly:</t>
-  </si>
-  <si>
-    <t>Unique (SMD Assembly):</t>
   </si>
   <si>
     <t>Digikey (€):</t>
@@ -631,7 +622,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -664,6 +655,23 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -702,17 +710,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -768,12 +767,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="142">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -786,6 +816,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -796,6 +836,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -923,6 +983,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -930,6 +997,50 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -957,6 +1068,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1235,6 +1356,558 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1685,7 +2358,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,917 +2366,917 @@
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.140625" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="25.140625" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="5" customWidth="1"/>
-    <col min="10" max="11" width="11.42578125" style="6"/>
-    <col min="12" max="12" width="11.42578125" style="7"/>
+    <col min="9" max="9" width="10.85546875" style="2" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" style="3"/>
+    <col min="12" max="12" width="11.42578125" style="4"/>
     <col min="13" max="13" width="17.85546875" customWidth="1"/>
     <col min="14" max="14" width="18.85546875" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="17" width="11.85546875" style="8" customWidth="1"/>
+    <col min="16" max="17" width="11.85546875" style="5" customWidth="1"/>
     <col min="18" max="1025" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="14">
         <v>1.01</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="14">
         <v>1.01</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="3">
         <v>0.79800000000000004</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="14">
+      <c r="L3" s="4"/>
+      <c r="M3" s="11">
         <f t="shared" ref="M3:M46" si="0">5*B3</f>
         <v>5</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="11">
         <f t="shared" ref="N3:N46" si="1">10*B3</f>
         <v>10</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="5">
         <f t="shared" ref="P3:P46" si="2">IF(M3&gt;5,K3*M3,J3*M3)</f>
         <v>5.05</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="5">
         <f t="shared" ref="Q3:Q46" si="3">IF(N3&gt;5,K3*N3,J3*N3)</f>
         <v>7.98</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:17" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="11">
         <v>4</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="16" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="14">
         <v>0.247</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="14">
         <v>0.247</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="3">
         <v>0.115</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="14">
+      <c r="L4" s="4"/>
+      <c r="M4" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="11">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="5">
         <f t="shared" si="2"/>
         <v>2.3000000000000003</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="5">
         <f t="shared" si="3"/>
         <v>4.6000000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:17" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="16" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="14">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="14">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="3">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="14">
+      <c r="L5" s="4"/>
+      <c r="M5" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="5">
         <f t="shared" si="2"/>
         <v>0.42500000000000004</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="5">
         <f t="shared" si="3"/>
         <v>0.37</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:17" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="20" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="18">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="18">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="3">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="14">
+      <c r="L6" s="4"/>
+      <c r="M6" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="5">
         <f t="shared" si="2"/>
         <v>0.42500000000000004</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="5">
         <f t="shared" si="3"/>
         <v>0.54</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:17" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="11">
         <v>1</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="16" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="14">
         <v>0.111</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="14">
         <v>0.111</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="3">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="14">
+      <c r="L7" s="4"/>
+      <c r="M7" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="5">
         <f t="shared" si="2"/>
         <v>0.55500000000000005</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="5">
         <f t="shared" si="3"/>
         <v>0.45999999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:17" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="16" t="s">
+      <c r="G8" s="15"/>
+      <c r="H8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="14">
         <v>0.34899999999999998</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="14">
         <v>0.34899999999999998</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="3">
         <v>0.184</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="14">
+      <c r="L8" s="4"/>
+      <c r="M8" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="11">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="5">
         <f t="shared" si="2"/>
         <v>2.76</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="5">
         <f t="shared" si="3"/>
         <v>5.52</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:17" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="11">
         <v>1</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="16" t="s">
+      <c r="G9" s="15"/>
+      <c r="H9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="14">
         <v>0.20399999999999999</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="14">
         <v>0.20399999999999999</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="3">
         <v>0.13400000000000001</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="14">
+      <c r="L9" s="4"/>
+      <c r="M9" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="5">
         <f t="shared" si="2"/>
         <v>1.02</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="5">
         <f t="shared" si="3"/>
         <v>1.34</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="11">
         <v>1</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="14">
         <v>0.315</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="14">
         <v>0.315</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="3">
         <v>0.23799999999999999</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="14">
+      <c r="L10" s="4"/>
+      <c r="M10" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="5">
         <f t="shared" si="2"/>
         <v>1.575</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="5">
         <f t="shared" si="3"/>
         <v>2.38</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="11">
         <v>1</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="14">
         <v>0.28100000000000003</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="14">
         <v>0.28100000000000003</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="3">
         <v>0.17399999999999999</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="14">
+      <c r="L11" s="4"/>
+      <c r="M11" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="5">
         <f t="shared" si="2"/>
         <v>1.4050000000000002</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="5">
         <f t="shared" si="3"/>
         <v>1.7399999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="11">
         <v>2</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="14">
         <v>0.30599999999999999</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="14">
         <v>0.30599999999999999</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="3">
         <v>0.19</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="14">
+      <c r="L12" s="4"/>
+      <c r="M12" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="11">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="5">
         <f t="shared" si="2"/>
         <v>1.9</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="5">
         <f t="shared" si="3"/>
         <v>3.8</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="11">
         <v>1</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="14">
         <v>0.28100000000000003</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="14">
         <v>0.28100000000000003</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="3">
         <v>0.17399999999999999</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="14">
+      <c r="L13" s="4"/>
+      <c r="M13" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="5">
         <f t="shared" si="2"/>
         <v>1.4050000000000002</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="5">
         <f t="shared" si="3"/>
         <v>1.7399999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:17" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="11">
         <v>1</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="14">
         <v>0.59499999999999997</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="14">
         <v>0.59499999999999997</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="3">
         <v>0.47599999999999998</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="14">
+      <c r="L14" s="4"/>
+      <c r="M14" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="5">
         <f t="shared" si="2"/>
         <v>2.9749999999999996</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="5">
         <f t="shared" si="3"/>
         <v>4.76</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="11">
         <v>1</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="14">
         <v>0.52</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="14">
         <v>0.52</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="14">
         <v>0.52</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="14">
+      <c r="L15" s="4"/>
+      <c r="M15" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="5">
         <f t="shared" si="2"/>
         <v>2.6</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="5">
         <f t="shared" si="3"/>
         <v>5.2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="11">
         <v>1</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="14" t="s">
+      <c r="D16" s="12"/>
+      <c r="E16" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="14">
         <v>0.254</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="14">
         <v>0.254</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="14">
         <v>0.254</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="14">
+      <c r="L16" s="4"/>
+      <c r="M16" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="5">
         <f t="shared" si="2"/>
         <v>1.27</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="5">
         <f t="shared" si="3"/>
         <v>2.54</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="11">
         <v>2</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="20">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="20">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="20">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="14">
+      <c r="L17" s="4"/>
+      <c r="M17" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="11">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="5">
         <f t="shared" si="2"/>
         <v>0.33799999999999997</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="5">
         <f t="shared" si="3"/>
         <v>0.67599999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="14">
+    <row r="18" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="11">
         <v>2</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="G18" s="14" t="s">
+      <c r="D18" s="12"/>
+      <c r="G18" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="14">
         <v>0.3</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="14">
         <v>0.3</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="14">
         <v>0.3</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="14">
+      <c r="L18" s="4"/>
+      <c r="M18" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="11">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="5">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="5">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="11">
         <v>1</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="14">
         <v>0.72299999999999998</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="14">
         <v>0.72299999999999998</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="14">
+      <c r="L19" s="4"/>
+      <c r="M19" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="5">
         <f t="shared" si="2"/>
         <v>3.6149999999999998</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q19" s="5">
         <f t="shared" si="3"/>
         <v>5.6999999999999993</v>
       </c>
@@ -2612,10 +3285,10 @@
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="12"/>
       <c r="E20" t="s">
         <v>84</v>
       </c>
@@ -2625,965 +3298,965 @@
       <c r="G20" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="14">
         <v>0.67200000000000004</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="14">
         <v>0.67200000000000004</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="3">
         <v>0.58099999999999996</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="11">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="5">
         <f t="shared" si="2"/>
         <v>5.81</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="Q20" s="5">
         <f t="shared" si="3"/>
         <v>11.62</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="11">
         <v>1</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="14">
         <v>0.32300000000000001</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="14">
         <v>0.32300000000000001</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="3">
         <v>0.252</v>
       </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="14">
+      <c r="L21" s="4"/>
+      <c r="M21" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="5">
         <f t="shared" si="2"/>
         <v>1.615</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="Q21" s="5">
         <f t="shared" si="3"/>
         <v>2.52</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="11">
         <v>1</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="14">
         <v>0.187</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="14">
         <v>0.187</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="3">
         <v>0.123</v>
       </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="14">
+      <c r="L22" s="4"/>
+      <c r="M22" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N22" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P22" s="8">
+      <c r="P22" s="5">
         <f t="shared" si="2"/>
         <v>0.93500000000000005</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="Q22" s="5">
         <f t="shared" si="3"/>
         <v>1.23</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="11">
         <v>1</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="11">
         <v>1153</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="14">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="14">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="14">
+      <c r="L23" s="4"/>
+      <c r="M23" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P23" s="5">
         <f t="shared" si="2"/>
         <v>0.42500000000000004</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="Q23" s="5">
         <f t="shared" si="3"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="11">
         <v>1</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="11">
         <v>5602</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="14">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="14">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="14">
+      <c r="L24" s="4"/>
+      <c r="M24" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P24" s="8">
+      <c r="P24" s="5">
         <f t="shared" si="2"/>
         <v>0.42500000000000004</v>
       </c>
-      <c r="Q24" s="8">
+      <c r="Q24" s="5">
         <f t="shared" si="3"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="11">
         <v>5</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="11">
         <v>1001</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="14">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="14">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="14">
+      <c r="L25" s="4"/>
+      <c r="M25" s="11">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25" s="11">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="P25" s="8">
+      <c r="P25" s="5">
         <f t="shared" si="2"/>
         <v>0.35000000000000003</v>
       </c>
-      <c r="Q25" s="8">
+      <c r="Q25" s="5">
         <f t="shared" si="3"/>
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="11">
         <v>1</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="11">
         <v>0</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="14">
         <v>0.11899999999999999</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="14">
         <v>0.11899999999999999</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="14">
+      <c r="L26" s="4"/>
+      <c r="M26" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N26" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P26" s="8">
+      <c r="P26" s="5">
         <f t="shared" si="2"/>
         <v>0.59499999999999997</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="Q26" s="5">
         <f t="shared" si="3"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="11">
         <v>1</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="11">
         <v>2703</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="14">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="14">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="14">
+      <c r="L27" s="4"/>
+      <c r="M27" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N27" s="14">
+      <c r="N27" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P27" s="8">
+      <c r="P27" s="5">
         <f t="shared" si="2"/>
         <v>0.42500000000000004</v>
       </c>
-      <c r="Q27" s="8">
+      <c r="Q27" s="5">
         <f t="shared" si="3"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="11">
         <v>2</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="11">
         <v>104</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="14">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="14">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="L28" s="7"/>
-      <c r="M28" s="14">
+      <c r="L28" s="4"/>
+      <c r="M28" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N28" s="11">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="P28" s="8">
+      <c r="P28" s="5">
         <f t="shared" si="2"/>
         <v>0.10999999999999999</v>
       </c>
-      <c r="Q28" s="8">
+      <c r="Q28" s="5">
         <f t="shared" si="3"/>
         <v>0.21999999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="11">
         <v>3</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="11">
         <v>1053</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="14">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="14">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="14">
+      <c r="L29" s="4"/>
+      <c r="M29" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N29" s="11">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="P29" s="8">
+      <c r="P29" s="5">
         <f t="shared" si="2"/>
         <v>0.21</v>
       </c>
-      <c r="Q29" s="8">
+      <c r="Q29" s="5">
         <f t="shared" si="3"/>
         <v>0.42</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="11">
         <v>2</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="11">
         <v>105</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="14">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="14">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="L30" s="7"/>
-      <c r="M30" s="14">
+      <c r="L30" s="4"/>
+      <c r="M30" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N30" s="14">
+      <c r="N30" s="11">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="P30" s="8">
+      <c r="P30" s="5">
         <f t="shared" si="2"/>
         <v>0.10999999999999999</v>
       </c>
-      <c r="Q30" s="8">
+      <c r="Q30" s="5">
         <f t="shared" si="3"/>
         <v>0.21999999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="11">
         <v>1</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="11">
         <v>1503</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="14">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="14">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="L31" s="7"/>
-      <c r="M31" s="14">
+      <c r="L31" s="4"/>
+      <c r="M31" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N31" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P31" s="8">
+      <c r="P31" s="5">
         <f t="shared" si="2"/>
         <v>0.42500000000000004</v>
       </c>
-      <c r="Q31" s="8">
+      <c r="Q31" s="5">
         <f t="shared" si="3"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+    <row r="32" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="11">
         <v>1</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="11">
         <v>2001</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="14">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="14">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="L32" s="7"/>
-      <c r="M32" s="14">
+      <c r="L32" s="4"/>
+      <c r="M32" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N32" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P32" s="8">
+      <c r="P32" s="5">
         <f t="shared" si="2"/>
         <v>0.42500000000000004</v>
       </c>
-      <c r="Q32" s="8">
+      <c r="Q32" s="5">
         <f t="shared" si="3"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+    <row r="33" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="11">
         <v>1</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="14" t="s">
+      <c r="D33" s="12"/>
+      <c r="E33" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="H33" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="14">
         <v>0.85</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J33" s="14">
         <v>0.85</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="3">
         <v>0.56399999999999995</v>
       </c>
-      <c r="L33" s="7"/>
-      <c r="M33" s="14">
+      <c r="L33" s="4"/>
+      <c r="M33" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N33" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P33" s="8">
+      <c r="P33" s="5">
         <f t="shared" si="2"/>
         <v>4.25</v>
       </c>
-      <c r="Q33" s="8">
+      <c r="Q33" s="5">
         <f t="shared" si="3"/>
         <v>5.64</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+    <row r="34" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="11">
         <v>2</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H34" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="14">
         <v>1.78</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="14">
         <v>1.78</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="14">
         <v>1.593</v>
       </c>
-      <c r="L34" s="7"/>
-      <c r="M34" s="14">
+      <c r="L34" s="4"/>
+      <c r="M34" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N34" s="14">
+      <c r="N34" s="11">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="P34" s="8">
+      <c r="P34" s="5">
         <f t="shared" si="2"/>
         <v>15.93</v>
       </c>
-      <c r="Q34" s="8">
+      <c r="Q34" s="5">
         <f t="shared" si="3"/>
         <v>31.86</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+    <row r="35" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="11">
         <v>2</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="14">
         <v>1.63</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J35" s="14">
         <v>1.63</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="3">
         <v>1.454</v>
       </c>
-      <c r="L35" s="7"/>
-      <c r="M35" s="14">
+      <c r="L35" s="4"/>
+      <c r="M35" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N35" s="14">
+      <c r="N35" s="11">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="P35" s="8">
+      <c r="P35" s="5">
         <f t="shared" si="2"/>
         <v>14.54</v>
       </c>
-      <c r="Q35" s="8">
+      <c r="Q35" s="5">
         <f t="shared" si="3"/>
         <v>29.08</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+    <row r="36" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="11">
         <v>1</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="H36" s="16" t="s">
+      <c r="H36" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="14">
         <v>0.67200000000000004</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J36" s="14">
         <v>0.67200000000000004</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="3">
         <v>0.55700000000000005</v>
       </c>
-      <c r="L36" s="7"/>
-      <c r="M36" s="14">
+      <c r="L36" s="4"/>
+      <c r="M36" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N36" s="14">
+      <c r="N36" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P36" s="8">
+      <c r="P36" s="5">
         <f t="shared" si="2"/>
         <v>3.3600000000000003</v>
       </c>
-      <c r="Q36" s="8">
+      <c r="Q36" s="5">
         <f t="shared" si="3"/>
         <v>5.57</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+    <row r="37" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="11">
         <v>1</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="H37" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="14">
         <v>1.65</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J37" s="14">
         <v>1.65</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="3">
         <v>1.52</v>
       </c>
-      <c r="L37" s="7"/>
-      <c r="M37" s="14">
+      <c r="L37" s="4"/>
+      <c r="M37" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N37" s="14">
+      <c r="N37" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P37" s="8">
+      <c r="P37" s="5">
         <f t="shared" si="2"/>
         <v>8.25</v>
       </c>
-      <c r="Q37" s="8">
+      <c r="Q37" s="5">
         <f t="shared" si="3"/>
         <v>15.2</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+    <row r="38" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="11">
         <v>1</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="H38" s="16" t="s">
+      <c r="H38" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="14">
         <v>2.0299999999999998</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J38" s="14">
         <v>2.0299999999999998</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="3">
         <v>1.83</v>
       </c>
-      <c r="L38" s="7"/>
-      <c r="M38" s="14">
+      <c r="L38" s="4"/>
+      <c r="M38" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N38" s="14">
+      <c r="N38" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P38" s="8">
+      <c r="P38" s="5">
         <f t="shared" si="2"/>
         <v>10.149999999999999</v>
       </c>
-      <c r="Q38" s="8">
+      <c r="Q38" s="5">
         <f t="shared" si="3"/>
         <v>18.3</v>
       </c>
@@ -3592,41 +4265,41 @@
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="15"/>
+      <c r="D39" s="12"/>
       <c r="E39" t="s">
         <v>156</v>
       </c>
       <c r="G39" t="s">
         <v>157</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I39" s="21">
         <v>25.71</v>
       </c>
-      <c r="J39" s="24">
+      <c r="J39" s="21">
         <v>25.71</v>
       </c>
-      <c r="K39" s="24">
+      <c r="K39" s="21">
         <v>25.71</v>
       </c>
-      <c r="M39" s="14">
+      <c r="M39" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N39" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P39" s="8">
+      <c r="P39" s="5">
         <f t="shared" si="2"/>
         <v>128.55000000000001</v>
       </c>
-      <c r="Q39" s="8">
+      <c r="Q39" s="5">
         <f t="shared" si="3"/>
         <v>257.10000000000002</v>
       </c>
@@ -3635,41 +4308,41 @@
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="15"/>
+      <c r="D40" s="12"/>
       <c r="E40" t="s">
         <v>159</v>
       </c>
       <c r="G40" t="s">
         <v>160</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I40" s="21">
         <v>14.72</v>
       </c>
-      <c r="J40" s="24">
+      <c r="J40" s="21">
         <v>14.72</v>
       </c>
-      <c r="K40" s="24">
+      <c r="K40" s="21">
         <v>14.72</v>
       </c>
-      <c r="M40" s="14">
+      <c r="M40" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N40" s="14">
+      <c r="N40" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P40" s="8">
+      <c r="P40" s="5">
         <f t="shared" si="2"/>
         <v>73.600000000000009</v>
       </c>
-      <c r="Q40" s="8">
+      <c r="Q40" s="5">
         <f t="shared" si="3"/>
         <v>147.20000000000002</v>
       </c>
@@ -3678,41 +4351,41 @@
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="15"/>
+      <c r="D41" s="12"/>
       <c r="E41" t="s">
         <v>162</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="I41" s="24">
+      <c r="I41" s="21">
         <v>8.2799999999999994</v>
       </c>
-      <c r="J41" s="24">
+      <c r="J41" s="21">
         <v>8.2799999999999994</v>
       </c>
-      <c r="K41" s="24">
+      <c r="K41" s="21">
         <v>8.2799999999999994</v>
       </c>
-      <c r="M41" s="14">
+      <c r="M41" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N41" s="14">
+      <c r="N41" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P41" s="8">
+      <c r="P41" s="5">
         <f t="shared" si="2"/>
         <v>41.4</v>
       </c>
-      <c r="Q41" s="8">
+      <c r="Q41" s="5">
         <f t="shared" si="3"/>
         <v>82.8</v>
       </c>
@@ -3721,41 +4394,41 @@
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="15"/>
+      <c r="D42" s="12"/>
       <c r="E42" t="s">
         <v>165</v>
       </c>
       <c r="G42" t="s">
         <v>166</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H42" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="3">
         <v>12.75</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="3">
         <v>12.75</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="3">
         <v>12.75</v>
       </c>
-      <c r="M42" s="14">
+      <c r="M42" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N42" s="14">
+      <c r="N42" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P42" s="8">
+      <c r="P42" s="5">
         <f t="shared" si="2"/>
         <v>63.75</v>
       </c>
-      <c r="Q42" s="8">
+      <c r="Q42" s="5">
         <f t="shared" si="3"/>
         <v>127.5</v>
       </c>
@@ -3764,432 +4437,414 @@
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="15"/>
+      <c r="D43" s="12"/>
       <c r="E43" t="s">
         <v>168</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="H43" s="16" t="s">
+      <c r="H43" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I43" s="14">
         <v>2.36</v>
       </c>
-      <c r="J43" s="17">
+      <c r="J43" s="14">
         <v>2.36</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="3">
         <v>2.33</v>
       </c>
-      <c r="M43" s="14">
+      <c r="M43" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N43" s="14">
+      <c r="N43" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P43" s="8">
+      <c r="P43" s="5">
         <f t="shared" si="2"/>
         <v>11.799999999999999</v>
       </c>
-      <c r="Q43" s="8">
+      <c r="Q43" s="5">
         <f t="shared" si="3"/>
         <v>23.3</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="14">
+    <row r="44" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="11">
         <v>1</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D44" s="15"/>
-      <c r="G44" s="14" t="s">
+      <c r="D44" s="12"/>
+      <c r="G44" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="H44" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="14">
         <v>5.83</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="3">
         <v>5.25</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="3">
         <v>5.25</v>
       </c>
-      <c r="L44" s="7"/>
-      <c r="M44" s="14">
+      <c r="L44" s="4"/>
+      <c r="M44" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N44" s="14">
+      <c r="N44" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P44" s="8">
+      <c r="P44" s="5">
         <f t="shared" si="2"/>
         <v>26.25</v>
       </c>
-      <c r="Q44" s="8">
+      <c r="Q44" s="5">
         <f t="shared" si="3"/>
         <v>52.5</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="14">
+    <row r="45" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="11">
         <v>1</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="15"/>
-      <c r="G45" s="14" t="s">
+      <c r="D45" s="12"/>
+      <c r="G45" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="H45" s="16" t="s">
+      <c r="H45" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="14">
         <v>1.82</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="3">
         <v>1.82</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="3">
         <v>1.6439999999999999</v>
       </c>
-      <c r="L45" s="7"/>
-      <c r="M45" s="14">
+      <c r="L45" s="4"/>
+      <c r="M45" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N45" s="14">
+      <c r="N45" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P45" s="8">
+      <c r="P45" s="5">
         <f t="shared" si="2"/>
         <v>9.1</v>
       </c>
-      <c r="Q45" s="8">
+      <c r="Q45" s="5">
         <f t="shared" si="3"/>
         <v>16.439999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="14">
+    <row r="46" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="11">
         <v>1</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="15"/>
-      <c r="G46" s="14" t="s">
+      <c r="D46" s="12"/>
+      <c r="G46" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H46" s="16" t="s">
+      <c r="H46" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="3">
         <v>25.64</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="3">
         <v>25.64</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="3">
         <v>25.64</v>
       </c>
-      <c r="L46" s="7"/>
-      <c r="M46" s="14">
+      <c r="L46" s="4"/>
+      <c r="M46" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N46" s="14">
+      <c r="N46" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P46" s="8">
+      <c r="P46" s="5">
         <f t="shared" si="2"/>
         <v>128.19999999999999</v>
       </c>
-      <c r="Q46" s="8">
+      <c r="Q46" s="5">
         <f t="shared" si="3"/>
         <v>256.39999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="25">
+    <row r="47" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="22">
         <v>1</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="26"/>
-      <c r="H47" s="27" t="s">
+      <c r="D47" s="23"/>
+      <c r="H47" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="I47" s="28">
+      <c r="I47" s="25">
         <v>14.09</v>
       </c>
-      <c r="J47" s="28">
+      <c r="J47" s="25">
         <v>14.09</v>
       </c>
-      <c r="K47" s="28">
+      <c r="K47" s="25">
         <v>14.09</v>
       </c>
-      <c r="L47" s="29"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
+      <c r="L47" s="26"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="28" t="s">
         <v>178</v>
       </c>
       <c r="B49">
-        <f>SUMIF(C3:C46,"SMD",B3:B46)</f>
+        <f>SUMIF(C3:C47,"SMD",B3:B47)</f>
         <v>41</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="3" t="s">
+      <c r="D49" s="29"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="34"/>
+      <c r="O49" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="F49" s="2">
-        <f>COUNTIF(C3:C46,"SMD")</f>
-        <v>26</v>
-      </c>
-      <c r="O49" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="P49" s="33">
+      <c r="P49" s="30">
         <f>SUM(P3:P46)</f>
         <v>583.60799999999995</v>
       </c>
-      <c r="Q49" s="33">
+      <c r="Q49" s="30">
         <f>SUM(Q3:Q46)</f>
         <v>1142.0059999999999</v>
       </c>
-      <c r="R49" s="33"/>
+      <c r="R49" s="30"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="28" t="s">
         <v>178</v>
       </c>
       <c r="B50">
-        <f>SUMIF(C3:C46,"THT",B3:B46)</f>
+        <f>SUMIF(C3:C47,"THT",B3:B47)</f>
         <v>8</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="2"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="34"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="28" t="s">
         <v>178</v>
       </c>
       <c r="B51">
-        <f>SUMIF(C3:C46,"EXT",B3:B46)</f>
-        <v>14</v>
-      </c>
-      <c r="C51" s="31" t="s">
+        <f>SUMIF(C3:C47,"EXT",B3:B47)</f>
+        <v>15</v>
+      </c>
+      <c r="C51" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="32"/>
-      <c r="O51" s="31" t="s">
+      <c r="D51" s="29"/>
+      <c r="O51" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="P51" s="32">
+        <v>7.9</v>
+      </c>
+      <c r="Q51" s="32"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="31"/>
+      <c r="O53" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="P51" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="Q51" s="1"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="B53">
-        <f>SUMIFS(B3:B46,C3:C46,"SMD",D3:D46,"N")</f>
-        <v>7</v>
-      </c>
-      <c r="C53" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="F53" s="34">
-        <f>COUNTIFS(C3:C46,"SMD",D3:D46,"N")</f>
-        <v>6</v>
-      </c>
-      <c r="O53" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="P53" s="33">
+      <c r="P53" s="30">
         <f>SUMIF(H3:H46,"*www.digikey.es*",P3:P46)</f>
         <v>44.62</v>
       </c>
-      <c r="Q53" s="33">
+      <c r="Q53" s="30">
         <f>SUMIF(H3:H46,"*www.digikey.es*",Q3:Q46)</f>
         <v>85.36</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="O54" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="P54" s="33">
+      <c r="A54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="O54" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="P54" s="30">
         <f>SUMIF(H3:H46,"*www.mouser.es*",P3:P46)</f>
         <v>505.53</v>
       </c>
-      <c r="Q54" s="33">
+      <c r="Q54" s="30">
         <f>SUMIF(H3:H46,"*www.mouser.es*",Q3:Q46)</f>
         <v>989.7299999999999</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="O55" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="P55" s="33">
+      <c r="A55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="O55" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="P55" s="30">
         <f>SUMIF(H3:H46,"*www.tme.eu*",P3:P46)</f>
         <v>33.457999999999998</v>
       </c>
-      <c r="Q55" s="33">
+      <c r="Q55" s="30">
         <f>SUMIF(H3:H46,"*www.tme.eu*",Q3:Q46)</f>
         <v>66.915999999999997</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O57" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="P57" s="8">
+      <c r="O57" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="P57" s="5">
         <f>SUMIFS(P3:P46,$H$3:$H$46,"*www.digikey.es*",$C$3:$C$46,"THT")</f>
         <v>35.519999999999996</v>
       </c>
-      <c r="Q57" s="8">
+      <c r="Q57" s="5">
         <f>SUMIFS(Q3:Q46,$H$3:$H$46,"*www.digikey.es*",$C$3:$C$46,"THT")</f>
         <v>68.92</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O58" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="P58" s="8">
+      <c r="O58" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="P58" s="5">
         <f>SUMIFS(P3:P46,$H$3:$H$46,"*www.mouser.es*",$C$3:$C$46,"THT")</f>
         <v>6.59</v>
       </c>
-      <c r="Q58" s="8">
+      <c r="Q58" s="5">
         <f>SUMIFS(Q3:Q46,$H$3:$H$46,"*www.mouser.es*",$C$3:$C$46,"THT")</f>
         <v>10.459999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O59" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="P59" s="8">
+      <c r="O59" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="P59" s="5">
         <f>SUMIFS(P3:P46,$H$3:$H$46,"*www.tme.eu*",$C$3:$C$46,"THT")</f>
         <v>2.6</v>
       </c>
-      <c r="Q59" s="8">
+      <c r="Q59" s="5">
         <f>SUMIFS(Q3:Q46,$H$3:$H$46,"*www.tme.eu*",$C$3:$C$46,"THT")</f>
         <v>5.2</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O61" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="P61" s="8">
+      <c r="O61" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="P61" s="5">
         <f>SUMIFS(P3:P46,$H$3:$H$46,"*www.digikey.es*",$C$3:$C$46,"SMD")</f>
         <v>0</v>
       </c>
-      <c r="Q61" s="8">
+      <c r="Q61" s="5">
         <f>SUMIFS(Q3:Q46,$H$3:$H$46,"*www.digikey.es*",$C$3:$C$46,"SMD")</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O62" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="P62" s="8">
+      <c r="O62" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="P62" s="5">
         <f>SUMIFS(P3:P46,$H$3:$H$46,"*www.mouser.es*",$C$3:$C$46,"SMD")</f>
         <v>41.58</v>
       </c>
-      <c r="Q62" s="8">
+      <c r="Q62" s="5">
         <f>SUMIFS(Q3:Q46,$H$3:$H$46,"*www.mouser.es*",$C$3:$C$46,"SMD")</f>
         <v>67.709999999999994</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O63" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="P63" s="8">
+      <c r="O63" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="P63" s="5">
         <f>SUMIFS(P3:P46,$H$3:$H$46,"*www.tme.eu*",$C$3:$C$46,"SMD")</f>
         <v>0.33799999999999997</v>
       </c>
-      <c r="Q63" s="8">
+      <c r="Q63" s="5">
         <f>SUMIFS(Q3:Q46,$H$3:$H$46,"*www.tme.eu*",$C$3:$C$46,"SMD")</f>
         <v>0.67599999999999993</v>
       </c>
     </row>
     <row r="65" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O65" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="P65" s="8">
+      <c r="O65" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="P65" s="5">
         <f>SUMIFS(P3:P46,$H$3:$H$46,"*www.digikey.es*",$C$3:$C$46,"EXT")</f>
         <v>9.1</v>
       </c>
-      <c r="Q65" s="8">
+      <c r="Q65" s="5">
         <f>SUMIFS(Q3:Q46,$H$3:$H$46,"*www.digikey.es*",$C$3:$C$46,"EXT")</f>
         <v>16.439999999999998</v>
       </c>
     </row>
     <row r="66" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O66" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="P66" s="8">
+      <c r="O66" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="P66" s="5">
         <f>SUMIFS(P3:P46,$H$3:$H$46,"*www.mouser.es*",$C$3:$C$46,"EXT")</f>
         <v>457.36</v>
       </c>
-      <c r="Q66" s="8">
+      <c r="Q66" s="5">
         <f>SUMIFS(Q3:Q46,$H$3:$H$46,"*www.mouser.es*",$C$3:$C$46,"EXT")</f>
         <v>911.56000000000006</v>
       </c>
     </row>
     <row r="67" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O67" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="P67" s="8">
+      <c r="O67" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="P67" s="5">
         <f>SUMIFS(P3:P46,$H$3:$H$46,"*www.tme.eu*",$C$3:$C$46,"EXT")</f>
         <v>30.52</v>
       </c>
-      <c r="Q67" s="8">
+      <c r="Q67" s="5">
         <f>SUMIFS(Q3:Q46,$H$3:$H$46,"*www.tme.eu*",$C$3:$C$46,"EXT")</f>
         <v>61.04</v>
       </c>
@@ -4201,33 +4856,33 @@
     <mergeCell ref="P51:Q51"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:D47">
-    <cfRule type="containsText" dxfId="63" priority="2" operator="containsText" text="EXT"/>
-    <cfRule type="containsText" dxfId="62" priority="3" operator="containsText" text="SMD"/>
-    <cfRule type="containsText" dxfId="61" priority="4" operator="containsText" text="THT"/>
+    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="EXT"/>
+    <cfRule type="containsText" dxfId="31" priority="6" operator="containsText" text="SMD"/>
+    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="THT"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D47">
-    <cfRule type="containsText" dxfId="60" priority="5" operator="containsText" text="N"/>
-    <cfRule type="containsText" dxfId="59" priority="6" operator="containsText" text="Y"/>
+    <cfRule type="containsText" dxfId="29" priority="8" operator="containsText" text="N"/>
+    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="Y"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H47">
-    <cfRule type="containsText" dxfId="58" priority="7" operator="containsText" text="tme"/>
-    <cfRule type="containsText" dxfId="57" priority="8" operator="containsText" text="mouser"/>
-    <cfRule type="containsText" dxfId="56" priority="9" operator="containsText" text="digikey"/>
-    <cfRule type="containsText" dxfId="55" priority="10" operator="containsText" text="www.tme.eu"/>
-    <cfRule type="containsText" dxfId="54" priority="11" operator="containsText" text="www.mouser.es"/>
-    <cfRule type="containsText" dxfId="53" priority="12" operator="containsText" text="www.digikey.es"/>
+    <cfRule type="containsText" dxfId="27" priority="10" operator="containsText" text="tme"/>
+    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="mouser"/>
+    <cfRule type="containsText" dxfId="25" priority="12" operator="containsText" text="digikey"/>
+    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="www.tme.eu"/>
+    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="www.mouser.es"/>
+    <cfRule type="containsText" dxfId="22" priority="15" operator="containsText" text="www.digikey.es"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C47">
-    <cfRule type="cellIs" dxfId="52" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
       <formula>"EXT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
       <formula>"THT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
       <formula>"SMD"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4236,6 +4891,17 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="mouser">
+      <formula>NOT(ISERROR(SEARCH("mouser",H1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="tme">
+      <formula>NOT(ISERROR(SEARCH("tme",H1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="digikey">
+      <formula>NOT(ISERROR(SEARCH("digikey",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -4286,7 +4952,7 @@
     <hyperlink ref="H47" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId46"/>
 </worksheet>
 </file>
 
@@ -4305,344 +4971,346 @@
     <col min="8" max="8" width="22.28515625" customWidth="1"/>
     <col min="9" max="13" width="10.5703125" customWidth="1"/>
     <col min="14" max="14" width="18.85546875" customWidth="1"/>
-    <col min="15" max="1025" width="10.5703125" customWidth="1"/>
+    <col min="15" max="16" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="1025" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="14">
         <v>1.01</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="14">
         <v>1.01</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="3">
         <v>0.79800000000000004</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="14">
+      <c r="L3" s="4"/>
+      <c r="M3" s="11">
         <f>5*B3</f>
         <v>5</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="11">
         <f>10*B3</f>
         <v>10</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="5">
         <f>IF(M3&gt;5,K3*M3,J3*M3)</f>
         <v>5.05</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="5">
         <f>IF(N3&gt;5,K3*N3,J3*N3)</f>
         <v>7.98</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="14">
         <v>1.78</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="14">
         <v>1.78</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="14">
         <v>1.593</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="14">
+      <c r="L4" s="4"/>
+      <c r="M4" s="11">
         <f>5*B4</f>
         <v>10</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="11">
         <f>10*B4</f>
         <v>20</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="5">
         <f>IF(M4&gt;5,K4*M4,J4*M4)</f>
         <v>15.93</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="5">
         <f>IF(N4&gt;5,K4*N4,J4*N4)</f>
         <v>31.86</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="14">
         <v>1.63</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="14">
         <v>1.63</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="3">
         <v>1.454</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="14">
+      <c r="L5" s="4"/>
+      <c r="M5" s="11">
         <f>5*B5</f>
         <v>10</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="11">
         <f>10*B5</f>
         <v>20</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="5">
         <f>IF(M5&gt;5,K5*M5,J5*M5)</f>
         <v>14.54</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="5">
         <f>IF(N5&gt;5,K5*N5,J5*N5)</f>
         <v>29.08</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="14">
+    <row r="6" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="G6" s="14" t="s">
+      <c r="D6" s="12"/>
+      <c r="G6" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="14">
         <v>1.82</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="3">
         <v>1.82</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="3">
         <v>1.6439999999999999</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="14">
+      <c r="L6" s="4"/>
+      <c r="M6" s="11">
         <f>5*B6</f>
         <v>5</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="11">
         <f>10*B6</f>
         <v>10</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="5">
         <f>IF(M6&gt;5,K6*M6,J6*M6)</f>
         <v>9.1</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="5">
         <f>IF(N6&gt;5,K6*N6,J6*N6)</f>
         <v>16.439999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14">
+    <row r="7" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11">
         <v>1</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="G7" s="14" t="s">
+      <c r="D7" s="12"/>
+      <c r="G7" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="I7" s="17">
+      <c r="H7" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="I7" s="14">
         <v>5.19</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="14">
         <v>5.19</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="3">
         <v>4.6669999999999998</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="14">
+      <c r="L7" s="4"/>
+      <c r="M7" s="11">
         <f>5*B7</f>
         <v>5</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="11">
         <f>10*B7</f>
         <v>10</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="5">
         <f>IF(M7&gt;5,K7*M7,J7*M7)</f>
         <v>25.950000000000003</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="5">
         <f>IF(N7&gt;5,K7*N7,J7*N7)</f>
         <v>46.67</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="25">
+    <row r="8" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="22">
         <v>1</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="H8" s="27" t="s">
+      <c r="D8" s="23"/>
+      <c r="H8" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="25">
         <v>14.09</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="25">
         <v>14.09</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="36">
         <v>14.09</v>
       </c>
-      <c r="L8" s="29"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
+      <c r="L8" s="26"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C8:D8 C3:D6">
-    <cfRule type="containsText" dxfId="49" priority="2" operator="containsText" text="EXT"/>
-    <cfRule type="containsText" dxfId="48" priority="3" operator="containsText" text="SMD"/>
-    <cfRule type="containsText" dxfId="47" priority="4" operator="containsText" text="THT"/>
+    <cfRule type="containsText" dxfId="114" priority="2" operator="containsText" text="EXT"/>
+    <cfRule type="containsText" dxfId="113" priority="3" operator="containsText" text="SMD"/>
+    <cfRule type="containsText" dxfId="112" priority="4" operator="containsText" text="THT"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8 D3:D6">
-    <cfRule type="containsText" dxfId="46" priority="5" operator="containsText" text="N"/>
-    <cfRule type="containsText" dxfId="45" priority="6" operator="containsText" text="Y"/>
+    <cfRule type="containsText" dxfId="111" priority="5" operator="containsText" text="N"/>
+    <cfRule type="containsText" dxfId="110" priority="6" operator="containsText" text="Y"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8 H3:H6">
-    <cfRule type="containsText" dxfId="44" priority="7" operator="containsText" text="tme"/>
-    <cfRule type="containsText" dxfId="43" priority="8" operator="containsText" text="mouser"/>
-    <cfRule type="containsText" dxfId="42" priority="9" operator="containsText" text="digikey"/>
-    <cfRule type="containsText" dxfId="41" priority="10" operator="containsText" text="www.tme.eu"/>
-    <cfRule type="containsText" dxfId="40" priority="11" operator="containsText" text="www.mouser.es"/>
-    <cfRule type="containsText" dxfId="39" priority="12" operator="containsText" text="www.digikey.es"/>
+    <cfRule type="containsText" dxfId="109" priority="7" operator="containsText" text="tme"/>
+    <cfRule type="containsText" dxfId="108" priority="8" operator="containsText" text="mouser"/>
+    <cfRule type="containsText" dxfId="107" priority="9" operator="containsText" text="digikey"/>
+    <cfRule type="containsText" dxfId="106" priority="10" operator="containsText" text="www.tme.eu"/>
+    <cfRule type="containsText" dxfId="105" priority="11" operator="containsText" text="www.mouser.es"/>
+    <cfRule type="containsText" dxfId="104" priority="12" operator="containsText" text="www.digikey.es"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C6 C8">
-    <cfRule type="cellIs" dxfId="38" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="13" operator="equal">
       <formula>"EXT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="14" operator="equal">
       <formula>"THT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="15" operator="equal">
       <formula>"SMD"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -4657,30 +5325,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:D7">
-    <cfRule type="containsText" dxfId="35" priority="17" operator="containsText" text="EXT"/>
-    <cfRule type="containsText" dxfId="34" priority="18" operator="containsText" text="SMD"/>
-    <cfRule type="containsText" dxfId="33" priority="19" operator="containsText" text="THT"/>
+    <cfRule type="containsText" dxfId="100" priority="17" operator="containsText" text="EXT"/>
+    <cfRule type="containsText" dxfId="99" priority="18" operator="containsText" text="SMD"/>
+    <cfRule type="containsText" dxfId="98" priority="19" operator="containsText" text="THT"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="32" priority="20" operator="containsText" text="N"/>
-    <cfRule type="containsText" dxfId="31" priority="21" operator="containsText" text="Y"/>
+    <cfRule type="containsText" dxfId="97" priority="20" operator="containsText" text="N"/>
+    <cfRule type="containsText" dxfId="96" priority="21" operator="containsText" text="Y"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="30" priority="22" operator="containsText" text="tme"/>
-    <cfRule type="containsText" dxfId="29" priority="23" operator="containsText" text="mouser"/>
-    <cfRule type="containsText" dxfId="28" priority="24" operator="containsText" text="digikey"/>
-    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="www.tme.eu"/>
-    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="www.mouser.es"/>
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="www.digikey.es"/>
+    <cfRule type="containsText" dxfId="95" priority="22" operator="containsText" text="tme"/>
+    <cfRule type="containsText" dxfId="94" priority="23" operator="containsText" text="mouser"/>
+    <cfRule type="containsText" dxfId="93" priority="24" operator="containsText" text="digikey"/>
+    <cfRule type="containsText" dxfId="92" priority="25" operator="containsText" text="www.tme.eu"/>
+    <cfRule type="containsText" dxfId="91" priority="26" operator="containsText" text="www.mouser.es"/>
+    <cfRule type="containsText" dxfId="90" priority="27" operator="containsText" text="www.digikey.es"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="28" operator="equal">
       <formula>"EXT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="29" operator="equal">
       <formula>"THT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="30" operator="equal">
       <formula>"SMD"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="31">
@@ -4709,9 +5377,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4722,150 +5392,152 @@
     <col min="8" max="8" width="20.42578125" customWidth="1"/>
     <col min="9" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="1025" width="9.140625" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="14">
         <v>0.59499999999999997</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="14">
         <v>0.59499999999999997</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="3">
         <v>0.47599999999999998</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="14">
+      <c r="L2" s="4"/>
+      <c r="M2" s="11">
         <f t="shared" ref="M2:M11" si="0">5*B2</f>
         <v>5</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="11">
         <f t="shared" ref="N2:N11" si="1">10*B2</f>
         <v>10</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="5">
         <f t="shared" ref="P2:P11" si="2">IF(M2&gt;5,K2*M2,J2*M2)</f>
         <v>2.9749999999999996</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="5">
         <f t="shared" ref="Q2:Q11" si="3">IF(N2&gt;5,K2*N2,J2*N2)</f>
         <v>4.76</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="14">
         <v>0.72299999999999998</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="14">
         <v>0.72299999999999998</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="14">
+      <c r="L3" s="4"/>
+      <c r="M3" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="5">
         <f t="shared" si="2"/>
         <v>3.6149999999999998</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="5">
         <f t="shared" si="3"/>
         <v>5.6999999999999993</v>
       </c>
@@ -4874,10 +5546,10 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="12"/>
       <c r="E4" t="s">
         <v>84</v>
       </c>
@@ -4887,82 +5559,82 @@
       <c r="G4" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="14">
         <v>0.67200000000000004</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="14">
         <v>0.67200000000000004</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="3">
         <v>0.58099999999999996</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="14">
+      <c r="L4" s="4"/>
+      <c r="M4" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="11">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="5">
         <f t="shared" si="2"/>
         <v>5.81</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="5">
         <f t="shared" si="3"/>
         <v>11.62</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="14">
         <v>0.85</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="14">
         <v>0.85</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="3">
         <v>0.56399999999999995</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="14">
+      <c r="L5" s="4"/>
+      <c r="M5" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="5">
         <f t="shared" si="2"/>
         <v>4.25</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="5">
         <f t="shared" si="3"/>
         <v>5.64</v>
       </c>
@@ -4971,42 +5643,42 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="12"/>
       <c r="E6" t="s">
         <v>156</v>
       </c>
       <c r="G6" t="s">
         <v>157</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="21">
         <v>25.71</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="21">
         <v>25.71</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="21">
         <v>25.71</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="14">
+      <c r="L6" s="4"/>
+      <c r="M6" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="5">
         <f t="shared" si="2"/>
         <v>128.55000000000001</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="5">
         <f t="shared" si="3"/>
         <v>257.10000000000002</v>
       </c>
@@ -5015,42 +5687,42 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="12"/>
       <c r="E7" t="s">
         <v>159</v>
       </c>
       <c r="G7" t="s">
         <v>160</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="21">
         <v>14.72</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="21">
         <v>14.72</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="21">
         <v>14.72</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="14">
+      <c r="L7" s="4"/>
+      <c r="M7" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="5">
         <f t="shared" si="2"/>
         <v>73.600000000000009</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="5">
         <f t="shared" si="3"/>
         <v>147.20000000000002</v>
       </c>
@@ -5059,42 +5731,42 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="12"/>
       <c r="E8" t="s">
         <v>162</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="21">
         <v>8.2799999999999994</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="21">
         <v>8.2799999999999994</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="21">
         <v>8.2799999999999994</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="14">
+      <c r="L8" s="4"/>
+      <c r="M8" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="5">
         <f t="shared" si="2"/>
         <v>41.4</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="5">
         <f t="shared" si="3"/>
         <v>82.8</v>
       </c>
@@ -5103,42 +5775,42 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="12"/>
       <c r="E9" t="s">
         <v>165</v>
       </c>
       <c r="G9" t="s">
         <v>166</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="3">
         <v>12.75</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="3">
         <v>12.75</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="3">
         <v>12.75</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="14">
+      <c r="L9" s="4"/>
+      <c r="M9" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="5">
         <f t="shared" si="2"/>
         <v>63.75</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="5">
         <f t="shared" si="3"/>
         <v>127.5</v>
       </c>
@@ -5147,101 +5819,115 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="12"/>
       <c r="E10" t="s">
         <v>168</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="14">
         <v>2.36</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="14">
         <v>2.36</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="3">
         <v>2.33</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="14">
+      <c r="L10" s="4"/>
+      <c r="M10" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="5">
         <f t="shared" si="2"/>
         <v>11.799999999999999</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="5">
         <f t="shared" si="3"/>
         <v>23.3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14">
+    <row r="11" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11">
         <v>1</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="G11" s="14" t="s">
+      <c r="D11" s="12"/>
+      <c r="G11" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="3">
         <v>25.64</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="3">
         <v>25.64</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="3">
         <v>25.64</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="14">
+      <c r="L11" s="4"/>
+      <c r="M11" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="5">
         <f t="shared" si="2"/>
         <v>128.19999999999999</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="5">
         <f t="shared" si="3"/>
         <v>256.39999999999998</v>
       </c>
     </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E13" s="35"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C2:D11">
-    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="EXT"/>
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="SMD"/>
-    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="THT"/>
+    <cfRule type="containsText" dxfId="86" priority="5" operator="containsText" text="EXT"/>
+    <cfRule type="containsText" dxfId="85" priority="6" operator="containsText" text="SMD"/>
+    <cfRule type="containsText" dxfId="84" priority="7" operator="containsText" text="THT"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="N"/>
-    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="Y"/>
+    <cfRule type="containsText" dxfId="83" priority="8" operator="containsText" text="N"/>
+    <cfRule type="containsText" dxfId="82" priority="9" operator="containsText" text="Y"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="www.tme.eu"/>
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="www.mouser.es"/>
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="www.digikey.es"/>
+    <cfRule type="containsText" dxfId="81" priority="10" operator="containsText" text="www.tme.eu"/>
+    <cfRule type="containsText" dxfId="80" priority="11" operator="containsText" text="www.mouser.es"/>
+    <cfRule type="containsText" dxfId="79" priority="12" operator="containsText" text="www.digikey.es"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="78" priority="1" operator="equal">
+      <formula>"SMD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="2" operator="equal">
+      <formula>"EXT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="3" operator="equal">
+      <formula>"THT"</formula>
+    </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
@@ -5266,10 +5952,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R26"/>
+  <dimension ref="A2:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5277,527 +5963,425 @@
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.140625" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="25.140625" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="5" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="6"/>
-    <col min="12" max="12" width="9.140625" style="7"/>
+    <col min="9" max="9" width="10.85546875" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="3"/>
+    <col min="12" max="12" width="9.140625" style="4"/>
     <col min="13" max="13" width="17.85546875" customWidth="1"/>
     <col min="14" max="14" width="18.85546875" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="17" width="11.85546875" style="8" customWidth="1"/>
+    <col min="16" max="17" width="11.85546875" style="5" customWidth="1"/>
     <col min="18" max="1025" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="14">
         <v>0.52</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="14">
         <v>0.52</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="14">
         <v>0.52</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="14">
+      <c r="L3" s="4"/>
+      <c r="M3" s="11">
         <f t="shared" ref="M3:M6" si="0">5*B3</f>
         <v>5</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="11">
         <f t="shared" ref="N3:N6" si="1">10*B3</f>
         <v>10</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="5">
         <f t="shared" ref="P3:P6" si="2">IF(M3&gt;5,K3*M3,J3*M3)</f>
         <v>2.6</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="5">
         <f t="shared" ref="Q3:Q6" si="3">IF(N3&gt;5,K3*N3,J3*N3)</f>
         <v>5.2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="14">
         <v>0.254</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="14">
         <v>0.254</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="14">
         <v>0.254</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="14">
+      <c r="L4" s="4"/>
+      <c r="M4" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="5">
         <f t="shared" si="2"/>
         <v>1.27</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="5">
         <f t="shared" si="3"/>
         <v>2.54</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14">
+    <row r="5" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="G5" s="14" t="s">
+      <c r="D5" s="12"/>
+      <c r="G5" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="14">
         <v>0.3</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="14">
         <v>0.3</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="14">
         <v>0.3</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="14">
+      <c r="L5" s="4"/>
+      <c r="M5" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="11">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="5">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="5">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="14">
+    <row r="6" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="G6" s="14" t="s">
+      <c r="D6" s="12"/>
+      <c r="G6" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="14">
         <v>5.83</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="3">
         <v>5.25</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="3">
         <v>5.25</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="14">
+      <c r="L6" s="4"/>
+      <c r="M6" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="5">
         <f t="shared" si="2"/>
         <v>26.25</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="5">
         <f t="shared" si="3"/>
         <v>52.5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8">
-        <f>SUMIF(C3:C6,"SMD",B3:B6)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F8" s="2">
-        <f>COUNTIF(C3:C6,"SMD")</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="P8" s="33">
-        <f>SUM(P3:P6)</f>
-        <v>33.119999999999997</v>
-      </c>
-      <c r="Q8" s="33">
-        <f>SUM(Q3:Q6)</f>
-        <v>66.239999999999995</v>
-      </c>
-      <c r="R8" s="33"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="B9">
-        <f>SUMIF(C3:C6,"THT",B3:B6)</f>
-        <v>1</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10">
-        <f>SUMIF(C3:C6,"EXT",B3:B6)</f>
-        <v>4</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="O10" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="P10" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="O8" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="B12">
-        <f>SUMIFS(B3:B6,C3:C6,"SMD",D3:D6,"N")</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="F12" s="34">
-        <f>COUNTIFS(C3:C6,"SMD",D3:D6,"N")</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="P12" s="33">
-        <f>SUMIF(H3:H6,"*www.digikey.es*",P3:P6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="33">
-        <f>SUMIF(H3:H6,"*www.digikey.es*",Q3:Q6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="O13" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="P13" s="33">
+      <c r="P8" s="30">
         <f>SUMIF(H3:H6,"*www.mouser.es*",P3:P6)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="33">
+      <c r="Q8" s="30">
         <f>SUMIF(H3:H6,"*www.mouser.es*",Q3:Q6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="O14" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="P14" s="33">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="O9" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="P9" s="30">
         <f>SUMIF(H3:H6,"*www.tme.eu*",P3:P6)</f>
         <v>33.119999999999997</v>
       </c>
-      <c r="Q14" s="33">
+      <c r="Q9" s="30">
         <f>SUMIF(H3:H6,"*www.tme.eu*",Q3:Q6)</f>
         <v>66.239999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O16" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="P16" s="8">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O11" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="P11" s="5">
         <f>SUMIFS(P3:P6,$H$3:$H$6,"*www.digikey.es*",$C$3:$C$6,"THT")</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q11" s="5">
         <f>SUMIFS(Q3:Q6,$H$3:$H$6,"*www.digikey.es*",$C$3:$C$6,"THT")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O17" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="P17" s="8">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O12" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="P12" s="5">
         <f>SUMIFS(P3:P6,$H$3:$H$6,"*www.mouser.es*",$C$3:$C$6,"THT")</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q12" s="5">
         <f>SUMIFS(Q3:Q6,$H$3:$H$6,"*www.mouser.es*",$C$3:$C$6,"THT")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O18" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="P18" s="8">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O13" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="P13" s="5">
         <f>SUMIFS(P3:P6,$H$3:$H$6,"*www.tme.eu*",$C$3:$C$6,"THT")</f>
         <v>2.6</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q13" s="5">
         <f>SUMIFS(Q3:Q6,$H$3:$H$6,"*www.tme.eu*",$C$3:$C$6,"THT")</f>
         <v>5.2</v>
       </c>
     </row>
-    <row r="20" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O20" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="P20" s="8">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O15" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="P15" s="5">
         <f>SUMIFS(P3:P6,$H$3:$H$6,"*www.digikey.es*",$C$3:$C$6,"SMD")</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="Q15" s="5">
         <f>SUMIFS(Q3:Q6,$H$3:$H$6,"*www.digikey.es*",$C$3:$C$6,"SMD")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O21" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="P21" s="8">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O16" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="P16" s="5">
         <f>SUMIFS(P3:P6,$H$3:$H$6,"*www.mouser.es*",$C$3:$C$6,"SMD")</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="Q16" s="5">
         <f>SUMIFS(Q3:Q6,$H$3:$H$6,"*www.mouser.es*",$C$3:$C$6,"SMD")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O22" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="P22" s="8">
+    <row r="17" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O17" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="P17" s="5">
         <f>SUMIFS(P3:P6,$H$3:$H$6,"*www.tme.eu*",$C$3:$C$6,"SMD")</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="Q17" s="5">
         <f>SUMIFS(Q3:Q6,$H$3:$H$6,"*www.tme.eu*",$C$3:$C$6,"SMD")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O24" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="P24" s="8">
+    <row r="19" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O19" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="P19" s="5">
         <f>SUMIFS(P3:P6,$H$3:$H$6,"*www.digikey.es*",$C$3:$C$6,"EXT")</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="8">
+      <c r="Q19" s="5">
         <f>SUMIFS(Q3:Q6,$H$3:$H$6,"*www.digikey.es*",$C$3:$C$6,"EXT")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O25" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="P25" s="8">
+    <row r="20" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O20" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="P20" s="5">
         <f>SUMIFS(P3:P6,$H$3:$H$6,"*www.mouser.es*",$C$3:$C$6,"EXT")</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="8">
+      <c r="Q20" s="5">
         <f>SUMIFS(Q3:Q6,$H$3:$H$6,"*www.mouser.es*",$C$3:$C$6,"EXT")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O26" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="P26" s="8">
+    <row r="21" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O21" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="P21" s="5">
         <f>SUMIFS(P3:P6,$H$3:$H$6,"*www.tme.eu*",$C$3:$C$6,"EXT")</f>
         <v>30.52</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="Q21" s="5">
         <f>SUMIFS(Q3:Q6,$H$3:$H$6,"*www.tme.eu*",$C$3:$C$6,"EXT")</f>
         <v>61.04</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="P10:Q10"/>
-  </mergeCells>
   <conditionalFormatting sqref="C3:D6">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="EXT"/>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="SMD"/>
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="THT"/>
+    <cfRule type="containsText" dxfId="75" priority="1" operator="containsText" text="EXT"/>
+    <cfRule type="containsText" dxfId="74" priority="2" operator="containsText" text="SMD"/>
+    <cfRule type="containsText" dxfId="73" priority="3" operator="containsText" text="THT"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D6">
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="N"/>
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Y"/>
+    <cfRule type="containsText" dxfId="72" priority="4" operator="containsText" text="N"/>
+    <cfRule type="containsText" dxfId="71" priority="5" operator="containsText" text="Y"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6">
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="tme"/>
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="mouser"/>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="digikey"/>
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="www.tme.eu"/>
-    <cfRule type="containsText" dxfId="4" priority="10" operator="containsText" text="www.mouser.es"/>
-    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="www.digikey.es"/>
+    <cfRule type="containsText" dxfId="70" priority="6" operator="containsText" text="tme"/>
+    <cfRule type="containsText" dxfId="69" priority="7" operator="containsText" text="mouser"/>
+    <cfRule type="containsText" dxfId="68" priority="8" operator="containsText" text="digikey"/>
+    <cfRule type="containsText" dxfId="67" priority="9" operator="containsText" text="www.tme.eu"/>
+    <cfRule type="containsText" dxfId="66" priority="10" operator="containsText" text="www.mouser.es"/>
+    <cfRule type="containsText" dxfId="65" priority="11" operator="containsText" text="www.digikey.es"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C6">
-    <cfRule type="cellIs" dxfId="2" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="99" operator="equal">
       <formula>"EXT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="100" operator="equal">
       <formula>"THT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="101" operator="equal">
       <formula>"SMD"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="102">

--- a/PCB/presupuestos/Nodo solar/presupuesto.xlsx
+++ b/PCB/presupuestos/Nodo solar/presupuesto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="205">
   <si>
     <t>Ref (PCB)</t>
   </si>
@@ -563,9 +563,6 @@
     <t>https://www.mouser.es/ProductDetail/Adafruit/200/?qs=sGAEpiMZZMsMyYRRhGMFNh0UmQdKZ6yJQn2PF3%2faB1Y%3d</t>
   </si>
   <si>
-    <t>https://www.digikey.es/products/es?keywords=MIKROE-1626</t>
-  </si>
-  <si>
     <t>Total:</t>
   </si>
   <si>
@@ -612,6 +609,42 @@
   </si>
   <si>
     <t>https://www.digikey.es/product-detail/es/ixys/SLMD121H04L/SLMD121H04L-ND/3463124</t>
+  </si>
+  <si>
+    <t>SC1</t>
+  </si>
+  <si>
+    <t>Comprado</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>J5 J6</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>AGOTADO</t>
+  </si>
+  <si>
+    <t>PEDIDO</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -622,7 +655,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -676,8 +709,23 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -688,12 +736,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF5B9BD5"/>
         <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -710,7 +752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -751,14 +793,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -767,23 +801,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="142">
+  <dxfs count="247">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -962,6 +1017,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -972,6 +1037,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -981,6 +1056,53 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -990,6 +1112,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -997,6 +1126,87 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1068,6 +1278,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1078,6 +1298,37 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1109,6 +1360,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1116,6 +1374,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -1123,6 +1388,57 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1194,6 +1510,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1204,6 +1530,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1320,6 +1656,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1426,6 +1772,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1445,6 +1801,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1456,6 +1833,71 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1485,6 +1927,46 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
@@ -1550,6 +2032,53 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -1559,6 +2088,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -1566,11 +2102,126 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1603,6 +2254,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -1610,6 +2268,50 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1753,6 +2455,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1762,6 +2494,37 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -1773,6 +2536,51 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1804,6 +2612,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -1811,6 +2626,50 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1838,6 +2697,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1848,6 +2717,37 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1908,6 +2808,57 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2354,11 +3305,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R67"/>
+  <dimension ref="A2:R66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3951,7 +4902,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>130</v>
       </c>
@@ -4001,7 +4952,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>134</v>
       </c>
@@ -4053,7 +5004,7 @@
         <v>31.86</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>134</v>
       </c>
@@ -4105,7 +5056,7 @@
         <v>29.08</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>141</v>
       </c>
@@ -4157,7 +5108,7 @@
         <v>5.57</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>146</v>
       </c>
@@ -4209,7 +5160,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>151</v>
       </c>
@@ -4261,7 +5212,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>1</v>
       </c>
@@ -4304,7 +5255,7 @@
         <v>257.10000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>1</v>
       </c>
@@ -4347,7 +5298,7 @@
         <v>147.20000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>1</v>
       </c>
@@ -4390,7 +5341,7 @@
         <v>82.8</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>1</v>
       </c>
@@ -4433,7 +5384,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>1</v>
       </c>
@@ -4476,7 +5427,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
         <v>1</v>
       </c>
@@ -4517,48 +5468,48 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="11">
+    <row r="45" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="30">
         <v>1</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="G45" s="11" t="s">
+      <c r="D45" s="31"/>
+      <c r="G45" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I45" s="33">
         <v>1.82</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="34">
         <v>1.82</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="34">
         <v>1.6439999999999999</v>
       </c>
-      <c r="L45" s="4"/>
-      <c r="M45" s="11">
+      <c r="L45" s="35"/>
+      <c r="M45" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N45" s="11">
+      <c r="N45" s="30">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P45" s="5">
+      <c r="P45" s="36">
         <f t="shared" si="2"/>
         <v>9.1</v>
       </c>
-      <c r="Q45" s="5">
+      <c r="Q45" s="36">
         <f t="shared" si="3"/>
         <v>16.439999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
         <v>1</v>
       </c>
@@ -4599,290 +5550,277 @@
         <v>256.39999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="22">
-        <v>1</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" s="23"/>
-      <c r="H47" s="24" t="s">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="I47" s="25">
-        <v>14.09</v>
-      </c>
-      <c r="J47" s="25">
-        <v>14.09</v>
-      </c>
-      <c r="K47" s="25">
-        <v>14.09</v>
-      </c>
-      <c r="L47" s="26"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="B48">
+        <f>SUMIF(C3:C46,"SMD",B3:B46)</f>
+        <v>41</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="28"/>
+      <c r="O48" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="B49">
-        <f>SUMIF(C3:C47,"SMD",B3:B47)</f>
-        <v>41</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="29"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="34"/>
-      <c r="O49" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="P49" s="30">
+      <c r="P48" s="24">
         <f>SUM(P3:P46)</f>
         <v>583.60799999999995</v>
       </c>
-      <c r="Q49" s="30">
+      <c r="Q48" s="24">
         <f>SUM(Q3:Q46)</f>
         <v>1142.0059999999999</v>
       </c>
-      <c r="R49" s="30"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
-        <v>178</v>
+      <c r="R48" s="24"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49">
+        <f>SUMIF(C3:C46,"THT",B3:B46)</f>
+        <v>8</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="28"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="B50">
-        <f>SUMIF(C3:C47,"THT",B3:B47)</f>
-        <v>8</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="29"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="34"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="B51">
-        <f>SUMIF(C3:C47,"EXT",B3:B47)</f>
-        <v>15</v>
-      </c>
-      <c r="C51" s="28" t="s">
+        <f>SUMIF(C3:C46,"EXT",B3:B46)</f>
+        <v>14</v>
+      </c>
+      <c r="C50" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="29"/>
-      <c r="O51" s="28" t="s">
+      <c r="D50" s="23"/>
+      <c r="O50" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="P50" s="29">
+        <v>7.9</v>
+      </c>
+      <c r="Q50" s="29"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="25"/>
+      <c r="O52" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="P51" s="32">
-        <v>7.9</v>
-      </c>
-      <c r="Q51" s="32"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="31"/>
-      <c r="O53" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="P53" s="30">
+      <c r="P52" s="24">
         <f>SUMIF(H3:H46,"*www.digikey.es*",P3:P46)</f>
         <v>44.62</v>
       </c>
-      <c r="Q53" s="30">
+      <c r="Q52" s="24">
         <f>SUMIF(H3:H46,"*www.digikey.es*",Q3:Q46)</f>
         <v>85.36</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="O54" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="P54" s="30">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="O53" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="P53" s="24">
         <f>SUMIF(H3:H46,"*www.mouser.es*",P3:P46)</f>
         <v>505.53</v>
       </c>
-      <c r="Q54" s="30">
+      <c r="Q53" s="24">
         <f>SUMIF(H3:H46,"*www.mouser.es*",Q3:Q46)</f>
         <v>989.7299999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="O55" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="P55" s="30">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="O54" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="P54" s="24">
         <f>SUMIF(H3:H46,"*www.tme.eu*",P3:P46)</f>
         <v>33.457999999999998</v>
       </c>
-      <c r="Q55" s="30">
+      <c r="Q54" s="24">
         <f>SUMIF(H3:H46,"*www.tme.eu*",Q3:Q46)</f>
         <v>66.915999999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O57" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="P57" s="5">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O56" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="P56" s="5">
         <f>SUMIFS(P3:P46,$H$3:$H$46,"*www.digikey.es*",$C$3:$C$46,"THT")</f>
         <v>35.519999999999996</v>
       </c>
-      <c r="Q57" s="5">
+      <c r="Q56" s="5">
         <f>SUMIFS(Q3:Q46,$H$3:$H$46,"*www.digikey.es*",$C$3:$C$46,"THT")</f>
         <v>68.92</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O58" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="P58" s="5">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O57" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="P57" s="5">
         <f>SUMIFS(P3:P46,$H$3:$H$46,"*www.mouser.es*",$C$3:$C$46,"THT")</f>
         <v>6.59</v>
       </c>
-      <c r="Q58" s="5">
+      <c r="Q57" s="5">
         <f>SUMIFS(Q3:Q46,$H$3:$H$46,"*www.mouser.es*",$C$3:$C$46,"THT")</f>
         <v>10.459999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O59" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="P59" s="5">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O58" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="P58" s="5">
         <f>SUMIFS(P3:P46,$H$3:$H$46,"*www.tme.eu*",$C$3:$C$46,"THT")</f>
         <v>2.6</v>
       </c>
-      <c r="Q59" s="5">
+      <c r="Q58" s="5">
         <f>SUMIFS(Q3:Q46,$H$3:$H$46,"*www.tme.eu*",$C$3:$C$46,"THT")</f>
         <v>5.2</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O61" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="P61" s="5">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O60" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="P60" s="5">
         <f>SUMIFS(P3:P46,$H$3:$H$46,"*www.digikey.es*",$C$3:$C$46,"SMD")</f>
         <v>0</v>
       </c>
-      <c r="Q61" s="5">
+      <c r="Q60" s="5">
         <f>SUMIFS(Q3:Q46,$H$3:$H$46,"*www.digikey.es*",$C$3:$C$46,"SMD")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O62" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="P62" s="5">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O61" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="P61" s="5">
         <f>SUMIFS(P3:P46,$H$3:$H$46,"*www.mouser.es*",$C$3:$C$46,"SMD")</f>
         <v>41.58</v>
       </c>
-      <c r="Q62" s="5">
+      <c r="Q61" s="5">
         <f>SUMIFS(Q3:Q46,$H$3:$H$46,"*www.mouser.es*",$C$3:$C$46,"SMD")</f>
         <v>67.709999999999994</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O63" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="P63" s="5">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O62" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="P62" s="5">
         <f>SUMIFS(P3:P46,$H$3:$H$46,"*www.tme.eu*",$C$3:$C$46,"SMD")</f>
         <v>0.33799999999999997</v>
       </c>
-      <c r="Q63" s="5">
+      <c r="Q62" s="5">
         <f>SUMIFS(Q3:Q46,$H$3:$H$46,"*www.tme.eu*",$C$3:$C$46,"SMD")</f>
         <v>0.67599999999999993</v>
       </c>
     </row>
-    <row r="65" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O65" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="P65" s="5">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O64" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="P64" s="5">
         <f>SUMIFS(P3:P46,$H$3:$H$46,"*www.digikey.es*",$C$3:$C$46,"EXT")</f>
         <v>9.1</v>
       </c>
-      <c r="Q65" s="5">
+      <c r="Q64" s="5">
         <f>SUMIFS(Q3:Q46,$H$3:$H$46,"*www.digikey.es*",$C$3:$C$46,"EXT")</f>
         <v>16.439999999999998</v>
       </c>
     </row>
-    <row r="66" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O66" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="P66" s="5">
+    <row r="65" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O65" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="P65" s="5">
         <f>SUMIFS(P3:P46,$H$3:$H$46,"*www.mouser.es*",$C$3:$C$46,"EXT")</f>
         <v>457.36</v>
       </c>
-      <c r="Q66" s="5">
+      <c r="Q65" s="5">
         <f>SUMIFS(Q3:Q46,$H$3:$H$46,"*www.mouser.es*",$C$3:$C$46,"EXT")</f>
         <v>911.56000000000006</v>
       </c>
     </row>
-    <row r="67" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O67" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="P67" s="5">
+    <row r="66" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O66" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="P66" s="5">
         <f>SUMIFS(P3:P46,$H$3:$H$46,"*www.tme.eu*",$C$3:$C$46,"EXT")</f>
         <v>30.52</v>
       </c>
-      <c r="Q67" s="5">
+      <c r="Q66" s="5">
         <f>SUMIFS(Q3:Q46,$H$3:$H$46,"*www.tme.eu*",$C$3:$C$46,"EXT")</f>
         <v>61.04</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="P50:Q50"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:D47">
-    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="EXT"/>
-    <cfRule type="containsText" dxfId="31" priority="6" operator="containsText" text="SMD"/>
-    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="THT"/>
+  <conditionalFormatting sqref="C3:D46">
+    <cfRule type="containsText" dxfId="78" priority="5" operator="containsText" text="EXT"/>
+    <cfRule type="containsText" dxfId="77" priority="6" operator="containsText" text="SMD"/>
+    <cfRule type="containsText" dxfId="76" priority="7" operator="containsText" text="THT"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D47">
-    <cfRule type="containsText" dxfId="29" priority="8" operator="containsText" text="N"/>
-    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="Y"/>
+  <conditionalFormatting sqref="D3:D46">
+    <cfRule type="containsText" dxfId="75" priority="8" operator="containsText" text="N"/>
+    <cfRule type="containsText" dxfId="74" priority="9" operator="containsText" text="Y"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H47">
-    <cfRule type="containsText" dxfId="27" priority="10" operator="containsText" text="tme"/>
-    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="mouser"/>
-    <cfRule type="containsText" dxfId="25" priority="12" operator="containsText" text="digikey"/>
-    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="www.tme.eu"/>
-    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="www.mouser.es"/>
-    <cfRule type="containsText" dxfId="22" priority="15" operator="containsText" text="www.digikey.es"/>
+  <conditionalFormatting sqref="H3:H46">
+    <cfRule type="containsText" dxfId="73" priority="10" operator="containsText" text="tme"/>
+    <cfRule type="containsText" dxfId="72" priority="11" operator="containsText" text="mouser"/>
+    <cfRule type="containsText" dxfId="71" priority="12" operator="containsText" text="digikey"/>
+    <cfRule type="containsText" dxfId="70" priority="13" operator="containsText" text="www.tme.eu"/>
+    <cfRule type="containsText" dxfId="69" priority="14" operator="containsText" text="www.mouser.es"/>
+    <cfRule type="containsText" dxfId="68" priority="15" operator="containsText" text="www.digikey.es"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C47">
-    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="digikey">
+      <formula>NOT(ISERROR(SEARCH("digikey",H1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="2" operator="containsText" text="tme">
+      <formula>NOT(ISERROR(SEARCH("tme",H1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="3" operator="containsText" text="mouser">
+      <formula>NOT(ISERROR(SEARCH("mouser",H1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C46">
+    <cfRule type="cellIs" dxfId="2" priority="125" operator="equal">
       <formula>"EXT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="126" operator="equal">
       <formula>"THT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="127" operator="equal">
       <formula>"SMD"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4891,17 +5829,6 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="mouser">
-      <formula>NOT(ISERROR(SEARCH("mouser",H1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="tme">
-      <formula>NOT(ISERROR(SEARCH("tme",H1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="digikey">
-      <formula>NOT(ISERROR(SEARCH("digikey",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -4949,371 +5876,378 @@
     <hyperlink ref="H44" r:id="rId42"/>
     <hyperlink ref="H45" r:id="rId43"/>
     <hyperlink ref="H46" r:id="rId44"/>
-    <hyperlink ref="H47" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId46"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId45"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q8"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="9" max="13" width="10.5703125" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" customWidth="1"/>
-    <col min="15" max="16" width="10.5703125" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="1025" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="10" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" customWidth="1"/>
+    <col min="16" max="17" width="10.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="1026" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="2" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="11">
+      <c r="C2" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="G2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="14">
+        <v>1.01</v>
+      </c>
+      <c r="K2" s="14">
+        <v>1.01</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="11">
+        <f>5*C2</f>
+        <v>5</v>
+      </c>
+      <c r="O2" s="11">
+        <f>10*C2</f>
+        <v>10</v>
+      </c>
+      <c r="Q2" s="5">
+        <f>IF(N2&gt;5,L2*N2,K2*N2)</f>
+        <v>5.05</v>
+      </c>
+      <c r="R2" s="5">
+        <f>IF(O2&gt;5,L2*O2,K2*O2)</f>
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="F3" s="11" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" s="14">
+        <v>1.78</v>
+      </c>
+      <c r="K3" s="14">
+        <v>1.78</v>
+      </c>
+      <c r="L3" s="14">
+        <v>1.593</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="11">
+        <f>5*C3</f>
+        <v>10</v>
+      </c>
+      <c r="O3" s="11">
+        <f>10*C3</f>
         <v>20</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="14">
-        <v>1.01</v>
-      </c>
-      <c r="J3" s="14">
-        <v>1.01</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="11">
-        <f>5*B3</f>
+      <c r="Q3" s="5">
+        <f>IF(N3&gt;5,L3*N3,K3*N3)</f>
+        <v>15.93</v>
+      </c>
+      <c r="R3" s="5">
+        <f>IF(O3&gt;5,L3*O3,K3*O3)</f>
+        <v>31.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J4" s="14">
+        <v>1.63</v>
+      </c>
+      <c r="K4" s="14">
+        <v>1.63</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.454</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="11">
+        <f>5*C4</f>
+        <v>10</v>
+      </c>
+      <c r="O4" s="11">
+        <f>10*C4</f>
+        <v>20</v>
+      </c>
+      <c r="Q4" s="5">
+        <f>IF(N4&gt;5,L4*N4,K4*N4)</f>
+        <v>14.54</v>
+      </c>
+      <c r="R4" s="5">
+        <f>IF(O4&gt;5,L4*O4,K4*O4)</f>
+        <v>29.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="H5" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="J5" s="14">
+        <v>5.19</v>
+      </c>
+      <c r="K5" s="14">
+        <v>5.19</v>
+      </c>
+      <c r="L5" s="3">
+        <v>4.6669999999999998</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="11">
+        <f>5*C5</f>
         <v>5</v>
       </c>
-      <c r="N3" s="11">
-        <f>10*B3</f>
+      <c r="O5" s="11">
+        <f>10*C5</f>
         <v>10</v>
       </c>
-      <c r="P3" s="5">
-        <f>IF(M3&gt;5,K3*M3,J3*M3)</f>
-        <v>5.05</v>
-      </c>
-      <c r="Q3" s="5">
-        <f>IF(N3&gt;5,K3*N3,J3*N3)</f>
-        <v>7.98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="11">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="I4" s="14">
-        <v>1.78</v>
-      </c>
-      <c r="J4" s="14">
-        <v>1.78</v>
-      </c>
-      <c r="K4" s="14">
-        <v>1.593</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="11">
-        <f>5*B4</f>
+      <c r="Q5" s="5">
+        <f>IF(N5&gt;5,L5*N5,K5*N5)</f>
+        <v>25.950000000000003</v>
+      </c>
+      <c r="R5" s="5">
+        <f>IF(O5&gt;5,L5*O5,K5*O5)</f>
+        <v>46.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="30">
+        <v>1</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="H6" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="J6" s="33">
+        <v>1.82</v>
+      </c>
+      <c r="K6" s="34">
+        <v>1.82</v>
+      </c>
+      <c r="L6" s="34">
+        <v>1.6439999999999999</v>
+      </c>
+      <c r="M6" s="35"/>
+      <c r="N6" s="30">
+        <f>5*C6</f>
+        <v>5</v>
+      </c>
+      <c r="O6" s="30">
+        <f>10*C6</f>
         <v>10</v>
       </c>
-      <c r="N4" s="11">
-        <f>10*B4</f>
-        <v>20</v>
-      </c>
-      <c r="P4" s="5">
-        <f>IF(M4&gt;5,K4*M4,J4*M4)</f>
-        <v>15.93</v>
-      </c>
-      <c r="Q4" s="5">
-        <f>IF(N4&gt;5,K4*N4,J4*N4)</f>
-        <v>31.86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="11">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" s="14">
-        <v>1.63</v>
-      </c>
-      <c r="J5" s="14">
-        <v>1.63</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1.454</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="11">
-        <f>5*B5</f>
-        <v>10</v>
-      </c>
-      <c r="N5" s="11">
-        <f>10*B5</f>
-        <v>20</v>
-      </c>
-      <c r="P5" s="5">
-        <f>IF(M5&gt;5,K5*M5,J5*M5)</f>
-        <v>14.54</v>
-      </c>
-      <c r="Q5" s="5">
-        <f>IF(N5&gt;5,K5*N5,J5*N5)</f>
-        <v>29.08</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="G6" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="I6" s="14">
-        <v>1.82</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1.82</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1.6439999999999999</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="11">
-        <f>5*B6</f>
-        <v>5</v>
-      </c>
-      <c r="N6" s="11">
-        <f>10*B6</f>
-        <v>10</v>
-      </c>
-      <c r="P6" s="5">
-        <f>IF(M6&gt;5,K6*M6,J6*M6)</f>
+      <c r="Q6" s="36">
+        <f>IF(N6&gt;5,L6*N6,K6*N6)</f>
         <v>9.1</v>
       </c>
-      <c r="Q6" s="5">
-        <f>IF(N6&gt;5,K6*N6,J6*N6)</f>
+      <c r="R6" s="36">
+        <f>IF(O6&gt;5,L6*O6,K6*O6)</f>
         <v>16.439999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="G7" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="I7" s="14">
-        <v>5.19</v>
-      </c>
-      <c r="J7" s="14">
-        <v>5.19</v>
-      </c>
-      <c r="K7" s="3">
-        <v>4.6669999999999998</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="11">
-        <f>5*B7</f>
-        <v>5</v>
-      </c>
-      <c r="N7" s="11">
-        <f>10*B7</f>
-        <v>10</v>
-      </c>
-      <c r="P7" s="5">
-        <f>IF(M7&gt;5,K7*M7,J7*M7)</f>
-        <v>25.950000000000003</v>
-      </c>
-      <c r="Q7" s="5">
-        <f>IF(N7&gt;5,K7*N7,J7*N7)</f>
-        <v>46.67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="22">
-        <v>1</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="H8" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="I8" s="25">
-        <v>14.09</v>
-      </c>
-      <c r="J8" s="25">
-        <v>14.09</v>
-      </c>
-      <c r="K8" s="36">
-        <v>14.09</v>
-      </c>
-      <c r="L8" s="26"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C8:D8 C3:D6">
-    <cfRule type="containsText" dxfId="114" priority="2" operator="containsText" text="EXT"/>
-    <cfRule type="containsText" dxfId="113" priority="3" operator="containsText" text="SMD"/>
-    <cfRule type="containsText" dxfId="112" priority="4" operator="containsText" text="THT"/>
+  <conditionalFormatting sqref="D2:E4 D6:E6">
+    <cfRule type="containsText" dxfId="64" priority="20" operator="containsText" text="EXT"/>
+    <cfRule type="containsText" dxfId="63" priority="21" operator="containsText" text="SMD"/>
+    <cfRule type="containsText" dxfId="62" priority="22" operator="containsText" text="THT"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 D3:D6">
-    <cfRule type="containsText" dxfId="111" priority="5" operator="containsText" text="N"/>
-    <cfRule type="containsText" dxfId="110" priority="6" operator="containsText" text="Y"/>
+  <conditionalFormatting sqref="E2:E4 E6">
+    <cfRule type="containsText" dxfId="61" priority="23" operator="containsText" text="N"/>
+    <cfRule type="containsText" dxfId="60" priority="24" operator="containsText" text="Y"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8 H3:H6">
-    <cfRule type="containsText" dxfId="109" priority="7" operator="containsText" text="tme"/>
-    <cfRule type="containsText" dxfId="108" priority="8" operator="containsText" text="mouser"/>
-    <cfRule type="containsText" dxfId="107" priority="9" operator="containsText" text="digikey"/>
-    <cfRule type="containsText" dxfId="106" priority="10" operator="containsText" text="www.tme.eu"/>
-    <cfRule type="containsText" dxfId="105" priority="11" operator="containsText" text="www.mouser.es"/>
-    <cfRule type="containsText" dxfId="104" priority="12" operator="containsText" text="www.digikey.es"/>
+  <conditionalFormatting sqref="I2:I4 I6">
+    <cfRule type="containsText" dxfId="59" priority="25" operator="containsText" text="tme"/>
+    <cfRule type="containsText" dxfId="58" priority="26" operator="containsText" text="mouser"/>
+    <cfRule type="containsText" dxfId="57" priority="27" operator="containsText" text="digikey"/>
+    <cfRule type="containsText" dxfId="56" priority="28" operator="containsText" text="www.tme.eu"/>
+    <cfRule type="containsText" dxfId="55" priority="29" operator="containsText" text="www.mouser.es"/>
+    <cfRule type="containsText" dxfId="54" priority="30" operator="containsText" text="www.digikey.es"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C6 C8">
-    <cfRule type="cellIs" dxfId="103" priority="13" operator="equal">
+  <conditionalFormatting sqref="D2:D4 D6">
+    <cfRule type="cellIs" dxfId="53" priority="121" operator="equal">
       <formula>"EXT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="122" operator="equal">
       <formula>"THT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="123" operator="equal">
       <formula>"SMD"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5324,34 +6258,34 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:D7">
-    <cfRule type="containsText" dxfId="100" priority="17" operator="containsText" text="EXT"/>
-    <cfRule type="containsText" dxfId="99" priority="18" operator="containsText" text="SMD"/>
-    <cfRule type="containsText" dxfId="98" priority="19" operator="containsText" text="THT"/>
+  <conditionalFormatting sqref="D5:E5">
+    <cfRule type="containsText" dxfId="50" priority="4" operator="containsText" text="EXT"/>
+    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="SMD"/>
+    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="THT"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="97" priority="20" operator="containsText" text="N"/>
-    <cfRule type="containsText" dxfId="96" priority="21" operator="containsText" text="Y"/>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="containsText" dxfId="47" priority="7" operator="containsText" text="N"/>
+    <cfRule type="containsText" dxfId="46" priority="8" operator="containsText" text="Y"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="95" priority="22" operator="containsText" text="tme"/>
-    <cfRule type="containsText" dxfId="94" priority="23" operator="containsText" text="mouser"/>
-    <cfRule type="containsText" dxfId="93" priority="24" operator="containsText" text="digikey"/>
-    <cfRule type="containsText" dxfId="92" priority="25" operator="containsText" text="www.tme.eu"/>
-    <cfRule type="containsText" dxfId="91" priority="26" operator="containsText" text="www.mouser.es"/>
-    <cfRule type="containsText" dxfId="90" priority="27" operator="containsText" text="www.digikey.es"/>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="tme"/>
+    <cfRule type="containsText" dxfId="44" priority="10" operator="containsText" text="mouser"/>
+    <cfRule type="containsText" dxfId="43" priority="11" operator="containsText" text="digikey"/>
+    <cfRule type="containsText" dxfId="42" priority="12" operator="containsText" text="www.tme.eu"/>
+    <cfRule type="containsText" dxfId="41" priority="13" operator="containsText" text="www.mouser.es"/>
+    <cfRule type="containsText" dxfId="40" priority="14" operator="containsText" text="www.digikey.es"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="89" priority="28" operator="equal">
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
       <formula>"EXT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
       <formula>"THT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
       <formula>"SMD"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5362,302 +6296,342 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
+      <formula>"PEDIDO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
+      <formula>"SI"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1"/>
-    <hyperlink ref="H4" r:id="rId2"/>
-    <hyperlink ref="H5" r:id="rId3"/>
-    <hyperlink ref="H6" r:id="rId4"/>
-    <hyperlink ref="H7" r:id="rId5"/>
-    <hyperlink ref="H8" r:id="rId6"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I6" r:id="rId4"/>
+    <hyperlink ref="I5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="1025" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="1026" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="11">
+      <c r="C2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="I2" s="14">
-        <v>0.59499999999999997</v>
       </c>
       <c r="J2" s="14">
         <v>0.59499999999999997</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="14">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="L2" s="3">
         <v>0.47599999999999998</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="11">
-        <f t="shared" ref="M2:M11" si="0">5*B2</f>
+      <c r="M2" s="4"/>
+      <c r="N2" s="11">
+        <f t="shared" ref="N2:N11" si="0">5*C2</f>
         <v>5</v>
       </c>
-      <c r="N2" s="11">
-        <f t="shared" ref="N2:N11" si="1">10*B2</f>
+      <c r="O2" s="11">
+        <f t="shared" ref="O2:O11" si="1">10*C2</f>
         <v>10</v>
       </c>
-      <c r="P2" s="5">
-        <f t="shared" ref="P2:P11" si="2">IF(M2&gt;5,K2*M2,J2*M2)</f>
+      <c r="Q2" s="5">
+        <f t="shared" ref="Q2:Q11" si="2">IF(N2&gt;5,L2*N2,K2*N2)</f>
         <v>2.9749999999999996</v>
       </c>
-      <c r="Q2" s="5">
-        <f t="shared" ref="Q2:Q11" si="3">IF(N2&gt;5,K2*N2,J2*N2)</f>
+      <c r="R2" s="5">
+        <f t="shared" ref="R2:R11" si="3">IF(O2&gt;5,L2*O2,K2*O2)</f>
         <v>4.76</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="11">
+      <c r="C3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="I3" s="14">
-        <v>0.72299999999999998</v>
       </c>
       <c r="J3" s="14">
         <v>0.72299999999999998</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="14">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="L3" s="3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="11">
+      <c r="M3" s="4"/>
+      <c r="N3" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N3" s="11">
+      <c r="O3" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P3" s="5">
+      <c r="Q3" s="5">
         <f t="shared" si="2"/>
         <v>3.6149999999999998</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="R3" s="5">
         <f t="shared" si="3"/>
         <v>5.6999999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" t="s">
         <v>84</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>85</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="I4" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="I4" s="14">
-        <v>0.67200000000000004</v>
       </c>
       <c r="J4" s="14">
         <v>0.67200000000000004</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="14">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="L4" s="3">
         <v>0.58099999999999996</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="11">
+      <c r="M4" s="4"/>
+      <c r="N4" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N4" s="11">
+      <c r="O4" s="11">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="P4" s="5">
+      <c r="Q4" s="5">
         <f t="shared" si="2"/>
         <v>5.81</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="R4" s="5">
         <f t="shared" si="3"/>
         <v>11.62</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="11">
+      <c r="C5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="13" t="s">
         <v>133</v>
-      </c>
-      <c r="I5" s="14">
-        <v>0.85</v>
       </c>
       <c r="J5" s="14">
         <v>0.85</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="L5" s="3">
         <v>0.56399999999999995</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="11">
+      <c r="M5" s="4"/>
+      <c r="N5" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N5" s="11">
+      <c r="O5" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P5" s="5">
+      <c r="Q5" s="5">
         <f t="shared" si="2"/>
         <v>4.25</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="R5" s="5">
         <f t="shared" si="3"/>
         <v>5.64</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" t="s">
         <v>156</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>157</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="I6" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="I6" s="21">
-        <v>25.71</v>
       </c>
       <c r="J6" s="21">
         <v>25.71</v>
@@ -5665,43 +6639,46 @@
       <c r="K6" s="21">
         <v>25.71</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="11">
+      <c r="L6" s="21">
+        <v>25.71</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N6" s="11">
+      <c r="O6" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P6" s="5">
+      <c r="Q6" s="5">
         <f t="shared" si="2"/>
         <v>128.55000000000001</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="R6" s="5">
         <f t="shared" si="3"/>
         <v>257.10000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" t="s">
         <v>159</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>160</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="I7" s="13" t="s">
         <v>161</v>
-      </c>
-      <c r="I7" s="21">
-        <v>14.72</v>
       </c>
       <c r="J7" s="21">
         <v>14.72</v>
@@ -5709,43 +6686,46 @@
       <c r="K7" s="21">
         <v>14.72</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="11">
+      <c r="L7" s="21">
+        <v>14.72</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N7" s="11">
+      <c r="O7" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P7" s="5">
+      <c r="Q7" s="5">
         <f t="shared" si="2"/>
         <v>73.600000000000009</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="R7" s="5">
         <f t="shared" si="3"/>
         <v>147.20000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" t="s">
         <v>162</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="I8" s="13" t="s">
         <v>164</v>
-      </c>
-      <c r="I8" s="21">
-        <v>8.2799999999999994</v>
       </c>
       <c r="J8" s="21">
         <v>8.2799999999999994</v>
@@ -5753,43 +6733,49 @@
       <c r="K8" s="21">
         <v>8.2799999999999994</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="11">
+      <c r="L8" s="21">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N8" s="11">
+      <c r="O8" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P8" s="5">
+      <c r="Q8" s="5">
         <f t="shared" si="2"/>
         <v>41.4</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="R8" s="5">
         <f t="shared" si="3"/>
         <v>82.8</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" t="s">
         <v>165</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>166</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="I9" s="13" t="s">
         <v>167</v>
-      </c>
-      <c r="I9" s="3">
-        <v>12.75</v>
       </c>
       <c r="J9" s="3">
         <v>12.75</v>
@@ -5797,84 +6783,96 @@
       <c r="K9" s="3">
         <v>12.75</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="11">
+      <c r="L9" s="3">
+        <v>12.75</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N9" s="11">
+      <c r="O9" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P9" s="5">
+      <c r="Q9" s="5">
         <f t="shared" si="2"/>
         <v>63.75</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="R9" s="5">
         <f t="shared" si="3"/>
         <v>127.5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" t="s">
         <v>168</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="I10" s="13" t="s">
         <v>170</v>
-      </c>
-      <c r="I10" s="14">
-        <v>2.36</v>
       </c>
       <c r="J10" s="14">
         <v>2.36</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="14">
+        <v>2.36</v>
+      </c>
+      <c r="L10" s="3">
         <v>2.33</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="11">
+      <c r="M10" s="4"/>
+      <c r="N10" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N10" s="11">
+      <c r="O10" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P10" s="5">
+      <c r="Q10" s="5">
         <f t="shared" si="2"/>
         <v>11.799999999999999</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="R10" s="5">
         <f t="shared" si="3"/>
         <v>23.3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11">
+    <row r="11" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="11">
         <v>1</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="G11" s="11" t="s">
+      <c r="E11" s="12"/>
+      <c r="H11" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="I11" s="13" t="s">
         <v>176</v>
-      </c>
-      <c r="I11" s="3">
-        <v>25.64</v>
       </c>
       <c r="J11" s="3">
         <v>25.64</v>
@@ -5882,64 +6880,78 @@
       <c r="K11" s="3">
         <v>25.64</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="11">
+      <c r="L11" s="3">
+        <v>25.64</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N11" s="11">
+      <c r="O11" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P11" s="5">
+      <c r="Q11" s="5">
         <f t="shared" si="2"/>
         <v>128.19999999999999</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="R11" s="5">
         <f t="shared" si="3"/>
         <v>256.39999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E13" s="35"/>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F13" s="26"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:D11">
-    <cfRule type="containsText" dxfId="86" priority="5" operator="containsText" text="EXT"/>
-    <cfRule type="containsText" dxfId="85" priority="6" operator="containsText" text="SMD"/>
-    <cfRule type="containsText" dxfId="84" priority="7" operator="containsText" text="THT"/>
+  <conditionalFormatting sqref="D2:E11">
+    <cfRule type="containsText" dxfId="33" priority="8" operator="containsText" text="EXT"/>
+    <cfRule type="containsText" dxfId="32" priority="9" operator="containsText" text="SMD"/>
+    <cfRule type="containsText" dxfId="31" priority="10" operator="containsText" text="THT"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D11">
-    <cfRule type="containsText" dxfId="83" priority="8" operator="containsText" text="N"/>
-    <cfRule type="containsText" dxfId="82" priority="9" operator="containsText" text="Y"/>
+  <conditionalFormatting sqref="E2:E11">
+    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="N"/>
+    <cfRule type="containsText" dxfId="29" priority="12" operator="containsText" text="Y"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H11">
-    <cfRule type="containsText" dxfId="81" priority="10" operator="containsText" text="www.tme.eu"/>
-    <cfRule type="containsText" dxfId="80" priority="11" operator="containsText" text="www.mouser.es"/>
-    <cfRule type="containsText" dxfId="79" priority="12" operator="containsText" text="www.digikey.es"/>
+  <conditionalFormatting sqref="I2:I11">
+    <cfRule type="containsText" dxfId="28" priority="13" operator="containsText" text="www.tme.eu"/>
+    <cfRule type="containsText" dxfId="27" priority="14" operator="containsText" text="www.mouser.es"/>
+    <cfRule type="containsText" dxfId="26" priority="15" operator="containsText" text="www.digikey.es"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="78" priority="1" operator="equal">
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
       <formula>"SMD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
       <formula>"EXT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
       <formula>"THT"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+      <formula>"SI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+      <formula>"PEDIDO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="H5" r:id="rId4"/>
-    <hyperlink ref="H6" r:id="rId5"/>
-    <hyperlink ref="H7" r:id="rId6"/>
-    <hyperlink ref="H8" r:id="rId7"/>
-    <hyperlink ref="H9" r:id="rId8"/>
-    <hyperlink ref="H10" r:id="rId9"/>
-    <hyperlink ref="H11" r:id="rId10"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="I6" r:id="rId5"/>
+    <hyperlink ref="I7" r:id="rId6"/>
+    <hyperlink ref="I8" r:id="rId7"/>
+    <hyperlink ref="I9" r:id="rId8"/>
+    <hyperlink ref="I10" r:id="rId9"/>
+    <hyperlink ref="I11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5952,439 +6964,316 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q21"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="2" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="3"/>
-    <col min="12" max="12" width="9.140625" style="4"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="17" width="11.85546875" style="5" customWidth="1"/>
-    <col min="18" max="1025" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="4"/>
+    <col min="14" max="14" width="17.85546875" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="17" max="18" width="11.85546875" style="5" customWidth="1"/>
+    <col min="19" max="1026" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="14">
+        <v>0.52</v>
+      </c>
+      <c r="K2" s="14">
+        <v>0.52</v>
+      </c>
+      <c r="L2" s="14">
+        <v>0.52</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="11">
+        <f t="shared" ref="N2:N5" si="0">5*C2</f>
+        <v>5</v>
+      </c>
+      <c r="O2" s="11">
+        <f t="shared" ref="O2:O5" si="1">10*C2</f>
+        <v>10</v>
+      </c>
+      <c r="Q2" s="5">
+        <f t="shared" ref="Q2:Q5" si="2">IF(N2&gt;5,L2*N2,K2*N2)</f>
+        <v>2.6</v>
+      </c>
+      <c r="R2" s="5">
+        <f t="shared" ref="R2:R5" si="3">IF(O2&gt;5,L2*O2,K2*O2)</f>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="11">
+      <c r="C3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="14">
-        <v>0.52</v>
+      <c r="H3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="J3" s="14">
-        <v>0.52</v>
+        <v>0.254</v>
       </c>
       <c r="K3" s="14">
-        <v>0.52</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="11">
-        <f t="shared" ref="M3:M6" si="0">5*B3</f>
-        <v>5</v>
-      </c>
+        <v>0.254</v>
+      </c>
+      <c r="L3" s="14">
+        <v>0.254</v>
+      </c>
+      <c r="M3" s="4"/>
       <c r="N3" s="11">
-        <f t="shared" ref="N3:N6" si="1">10*B3</f>
-        <v>10</v>
-      </c>
-      <c r="P3" s="5">
-        <f t="shared" ref="P3:P6" si="2">IF(M3&gt;5,K3*M3,J3*M3)</f>
-        <v>2.6</v>
-      </c>
-      <c r="Q3" s="5">
-        <f t="shared" ref="Q3:Q6" si="3">IF(N3&gt;5,K3*N3,J3*N3)</f>
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="14">
-        <v>0.254</v>
-      </c>
-      <c r="J4" s="14">
-        <v>0.254</v>
-      </c>
-      <c r="K4" s="14">
-        <v>0.254</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N4" s="11">
+      <c r="O3" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P4" s="5">
+      <c r="Q3" s="5">
         <f t="shared" si="2"/>
         <v>1.27</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="R3" s="5">
         <f t="shared" si="3"/>
         <v>2.54</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11">
+    <row r="4" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="G5" s="11" t="s">
+      <c r="E4" s="12"/>
+      <c r="H4" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="I4" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="14">
+      <c r="J4" s="14">
         <v>0.3</v>
       </c>
-      <c r="J5" s="14">
+      <c r="K4" s="14">
         <v>0.3</v>
       </c>
-      <c r="K5" s="14">
+      <c r="L4" s="14">
         <v>0.3</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="11">
+      <c r="M4" s="4"/>
+      <c r="N4" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N5" s="11">
+      <c r="O4" s="11">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="P5" s="5">
+      <c r="Q4" s="5">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="R4" s="5">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11">
+    <row r="5" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="G6" s="11" t="s">
+      <c r="E5" s="12"/>
+      <c r="H5" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="I5" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="I6" s="14">
+      <c r="J5" s="14">
         <v>5.83</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K5" s="3">
         <v>5.25</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L5" s="3">
         <v>5.25</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="11">
+      <c r="M5" s="4"/>
+      <c r="N5" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N6" s="11">
+      <c r="O5" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P6" s="5">
+      <c r="Q5" s="5">
         <f t="shared" si="2"/>
         <v>26.25</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="R5" s="5">
         <f t="shared" si="3"/>
         <v>52.5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="O8" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="P8" s="30">
-        <f>SUMIF(H3:H6,"*www.mouser.es*",P3:P6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="30">
-        <f>SUMIF(H3:H6,"*www.mouser.es*",Q3:Q6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="O9" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="P9" s="30">
-        <f>SUMIF(H3:H6,"*www.tme.eu*",P3:P6)</f>
-        <v>33.119999999999997</v>
-      </c>
-      <c r="Q9" s="30">
-        <f>SUMIF(H3:H6,"*www.tme.eu*",Q3:Q6)</f>
-        <v>66.239999999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O11" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="P11" s="5">
-        <f>SUMIFS(P3:P6,$H$3:$H$6,"*www.digikey.es*",$C$3:$C$6,"THT")</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="5">
-        <f>SUMIFS(Q3:Q6,$H$3:$H$6,"*www.digikey.es*",$C$3:$C$6,"THT")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O12" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="P12" s="5">
-        <f>SUMIFS(P3:P6,$H$3:$H$6,"*www.mouser.es*",$C$3:$C$6,"THT")</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="5">
-        <f>SUMIFS(Q3:Q6,$H$3:$H$6,"*www.mouser.es*",$C$3:$C$6,"THT")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O13" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="P13" s="5">
-        <f>SUMIFS(P3:P6,$H$3:$H$6,"*www.tme.eu*",$C$3:$C$6,"THT")</f>
-        <v>2.6</v>
-      </c>
-      <c r="Q13" s="5">
-        <f>SUMIFS(Q3:Q6,$H$3:$H$6,"*www.tme.eu*",$C$3:$C$6,"THT")</f>
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O15" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="P15" s="5">
-        <f>SUMIFS(P3:P6,$H$3:$H$6,"*www.digikey.es*",$C$3:$C$6,"SMD")</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="5">
-        <f>SUMIFS(Q3:Q6,$H$3:$H$6,"*www.digikey.es*",$C$3:$C$6,"SMD")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O16" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="P16" s="5">
-        <f>SUMIFS(P3:P6,$H$3:$H$6,"*www.mouser.es*",$C$3:$C$6,"SMD")</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="5">
-        <f>SUMIFS(Q3:Q6,$H$3:$H$6,"*www.mouser.es*",$C$3:$C$6,"SMD")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O17" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="P17" s="5">
-        <f>SUMIFS(P3:P6,$H$3:$H$6,"*www.tme.eu*",$C$3:$C$6,"SMD")</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="5">
-        <f>SUMIFS(Q3:Q6,$H$3:$H$6,"*www.tme.eu*",$C$3:$C$6,"SMD")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O19" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="P19" s="5">
-        <f>SUMIFS(P3:P6,$H$3:$H$6,"*www.digikey.es*",$C$3:$C$6,"EXT")</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="5">
-        <f>SUMIFS(Q3:Q6,$H$3:$H$6,"*www.digikey.es*",$C$3:$C$6,"EXT")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O20" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="P20" s="5">
-        <f>SUMIFS(P3:P6,$H$3:$H$6,"*www.mouser.es*",$C$3:$C$6,"EXT")</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="5">
-        <f>SUMIFS(Q3:Q6,$H$3:$H$6,"*www.mouser.es*",$C$3:$C$6,"EXT")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O21" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="P21" s="5">
-        <f>SUMIFS(P3:P6,$H$3:$H$6,"*www.tme.eu*",$C$3:$C$6,"EXT")</f>
-        <v>30.52</v>
-      </c>
-      <c r="Q21" s="5">
-        <f>SUMIFS(Q3:Q6,$H$3:$H$6,"*www.tme.eu*",$C$3:$C$6,"EXT")</f>
-        <v>61.04</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:D6">
-    <cfRule type="containsText" dxfId="75" priority="1" operator="containsText" text="EXT"/>
-    <cfRule type="containsText" dxfId="74" priority="2" operator="containsText" text="SMD"/>
-    <cfRule type="containsText" dxfId="73" priority="3" operator="containsText" text="THT"/>
+  <conditionalFormatting sqref="D2:E5">
+    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="EXT"/>
+    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="SMD"/>
+    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="THT"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D6">
-    <cfRule type="containsText" dxfId="72" priority="4" operator="containsText" text="N"/>
-    <cfRule type="containsText" dxfId="71" priority="5" operator="containsText" text="Y"/>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="N"/>
+    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="Y"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H6">
-    <cfRule type="containsText" dxfId="70" priority="6" operator="containsText" text="tme"/>
-    <cfRule type="containsText" dxfId="69" priority="7" operator="containsText" text="mouser"/>
-    <cfRule type="containsText" dxfId="68" priority="8" operator="containsText" text="digikey"/>
-    <cfRule type="containsText" dxfId="67" priority="9" operator="containsText" text="www.tme.eu"/>
-    <cfRule type="containsText" dxfId="66" priority="10" operator="containsText" text="www.mouser.es"/>
-    <cfRule type="containsText" dxfId="65" priority="11" operator="containsText" text="www.digikey.es"/>
+  <conditionalFormatting sqref="I2:I5">
+    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="tme"/>
+    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="mouser"/>
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="digikey"/>
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="www.tme.eu"/>
+    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="www.mouser.es"/>
+    <cfRule type="containsText" dxfId="9" priority="14" operator="containsText" text="www.digikey.es"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C6">
-    <cfRule type="cellIs" dxfId="64" priority="99" operator="equal">
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="cellIs" dxfId="8" priority="102" operator="equal">
       <formula>"EXT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="103" operator="equal">
       <formula>"THT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="104" operator="equal">
       <formula>"SMD"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="102">
+    <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6395,11 +7284,22 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"SI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"PEDIDO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1"/>
-    <hyperlink ref="H4" r:id="rId2"/>
-    <hyperlink ref="H5" r:id="rId3"/>
-    <hyperlink ref="H6" r:id="rId4"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PCB/presupuestos/Nodo solar/presupuesto.xlsx
+++ b/PCB/presupuestos/Nodo solar/presupuesto.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\UCM Investigacion\Compras\Nodo solar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\UCM Investigacion\Codigos\GitHub\solarNodeCasting\PCB\presupuestos\Nodo solar\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="204">
   <si>
     <t>Ref (PCB)</t>
   </si>
@@ -639,9 +639,6 @@
   </si>
   <si>
     <t>AGOTADO</t>
-  </si>
-  <si>
-    <t>PEDIDO</t>
   </si>
   <si>
     <t>NO</t>
@@ -802,15 +799,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -823,12 +811,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="247">
+  <dxfs count="79">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -841,6 +838,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -860,6 +887,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -871,6 +919,71 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -891,6 +1004,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -922,6 +1065,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -929,6 +1079,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -936,7 +1093,27 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -952,6 +1129,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -973,6 +1160,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -980,28 +1174,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1017,11 +1190,66 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1037,6 +1265,47 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1056,6 +1325,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1067,11 +1371,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1096,1748 +1410,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3307,7 +1885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
     </sheetView>
@@ -5468,43 +4046,43 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="30">
+    <row r="45" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="27">
         <v>1</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="31"/>
-      <c r="G45" s="30" t="s">
+      <c r="D45" s="28"/>
+      <c r="G45" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="H45" s="32" t="s">
+      <c r="H45" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="I45" s="33">
+      <c r="I45" s="30">
         <v>1.82</v>
       </c>
-      <c r="J45" s="34">
+      <c r="J45" s="31">
         <v>1.82</v>
       </c>
-      <c r="K45" s="34">
+      <c r="K45" s="31">
         <v>1.6439999999999999</v>
       </c>
-      <c r="L45" s="35"/>
-      <c r="M45" s="30">
+      <c r="L45" s="32"/>
+      <c r="M45" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N45" s="30">
+      <c r="N45" s="27">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P45" s="36">
+      <c r="P45" s="33">
         <f t="shared" si="2"/>
         <v>9.1</v>
       </c>
-      <c r="Q45" s="36">
+      <c r="Q45" s="33">
         <f t="shared" si="3"/>
         <v>16.439999999999998</v>
       </c>
@@ -5562,8 +4140,8 @@
         <v>23</v>
       </c>
       <c r="D48" s="23"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="28"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="36"/>
       <c r="O48" s="22" t="s">
         <v>178</v>
       </c>
@@ -5589,8 +4167,8 @@
         <v>16</v>
       </c>
       <c r="D49" s="23"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="28"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="36"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
@@ -5607,10 +4185,10 @@
       <c r="O50" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="P50" s="29">
+      <c r="P50" s="37">
         <v>7.9</v>
       </c>
-      <c r="Q50" s="29"/>
+      <c r="Q50" s="37"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
@@ -5811,13 +4389,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C46">
-    <cfRule type="cellIs" dxfId="2" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="125" operator="equal">
       <formula>"EXT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="126" operator="equal">
       <formula>"THT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="127" operator="equal">
       <formula>"SMD"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="128">
@@ -5911,7 +4489,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>194</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -6172,79 +4750,79 @@
         <v>46.67</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="27">
         <v>1</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="H6" s="30" t="s">
+      <c r="E6" s="28"/>
+      <c r="H6" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="30">
         <v>1.82</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="31">
         <v>1.82</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="31">
         <v>1.6439999999999999</v>
       </c>
-      <c r="M6" s="35"/>
-      <c r="N6" s="30">
+      <c r="M6" s="32"/>
+      <c r="N6" s="27">
         <f>5*C6</f>
         <v>5</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="27">
         <f>10*C6</f>
         <v>10</v>
       </c>
-      <c r="Q6" s="36">
+      <c r="Q6" s="33">
         <f>IF(N6&gt;5,L6*N6,K6*N6)</f>
         <v>9.1</v>
       </c>
-      <c r="R6" s="36">
+      <c r="R6" s="33">
         <f>IF(O6&gt;5,L6*O6,K6*O6)</f>
         <v>16.439999999999998</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:E4 D6:E6">
-    <cfRule type="containsText" dxfId="64" priority="20" operator="containsText" text="EXT"/>
-    <cfRule type="containsText" dxfId="63" priority="21" operator="containsText" text="SMD"/>
-    <cfRule type="containsText" dxfId="62" priority="22" operator="containsText" text="THT"/>
+    <cfRule type="containsText" dxfId="61" priority="20" operator="containsText" text="EXT"/>
+    <cfRule type="containsText" dxfId="60" priority="21" operator="containsText" text="SMD"/>
+    <cfRule type="containsText" dxfId="59" priority="22" operator="containsText" text="THT"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E4 E6">
-    <cfRule type="containsText" dxfId="61" priority="23" operator="containsText" text="N"/>
-    <cfRule type="containsText" dxfId="60" priority="24" operator="containsText" text="Y"/>
+    <cfRule type="containsText" dxfId="58" priority="23" operator="containsText" text="N"/>
+    <cfRule type="containsText" dxfId="57" priority="24" operator="containsText" text="Y"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I4 I6">
-    <cfRule type="containsText" dxfId="59" priority="25" operator="containsText" text="tme"/>
-    <cfRule type="containsText" dxfId="58" priority="26" operator="containsText" text="mouser"/>
-    <cfRule type="containsText" dxfId="57" priority="27" operator="containsText" text="digikey"/>
-    <cfRule type="containsText" dxfId="56" priority="28" operator="containsText" text="www.tme.eu"/>
-    <cfRule type="containsText" dxfId="55" priority="29" operator="containsText" text="www.mouser.es"/>
-    <cfRule type="containsText" dxfId="54" priority="30" operator="containsText" text="www.digikey.es"/>
+    <cfRule type="containsText" dxfId="56" priority="25" operator="containsText" text="tme"/>
+    <cfRule type="containsText" dxfId="55" priority="26" operator="containsText" text="mouser"/>
+    <cfRule type="containsText" dxfId="54" priority="27" operator="containsText" text="digikey"/>
+    <cfRule type="containsText" dxfId="53" priority="28" operator="containsText" text="www.tme.eu"/>
+    <cfRule type="containsText" dxfId="52" priority="29" operator="containsText" text="www.mouser.es"/>
+    <cfRule type="containsText" dxfId="51" priority="30" operator="containsText" text="www.digikey.es"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D4 D6">
-    <cfRule type="cellIs" dxfId="53" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="121" operator="equal">
       <formula>"EXT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="122" operator="equal">
       <formula>"THT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="123" operator="equal">
       <formula>"SMD"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="124">
@@ -6259,30 +4837,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
-    <cfRule type="containsText" dxfId="50" priority="4" operator="containsText" text="EXT"/>
-    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="SMD"/>
-    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="THT"/>
+    <cfRule type="containsText" dxfId="47" priority="4" operator="containsText" text="EXT"/>
+    <cfRule type="containsText" dxfId="46" priority="5" operator="containsText" text="SMD"/>
+    <cfRule type="containsText" dxfId="45" priority="6" operator="containsText" text="THT"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="47" priority="7" operator="containsText" text="N"/>
-    <cfRule type="containsText" dxfId="46" priority="8" operator="containsText" text="Y"/>
+    <cfRule type="containsText" dxfId="44" priority="7" operator="containsText" text="N"/>
+    <cfRule type="containsText" dxfId="43" priority="8" operator="containsText" text="Y"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="tme"/>
-    <cfRule type="containsText" dxfId="44" priority="10" operator="containsText" text="mouser"/>
-    <cfRule type="containsText" dxfId="43" priority="11" operator="containsText" text="digikey"/>
-    <cfRule type="containsText" dxfId="42" priority="12" operator="containsText" text="www.tme.eu"/>
-    <cfRule type="containsText" dxfId="41" priority="13" operator="containsText" text="www.mouser.es"/>
-    <cfRule type="containsText" dxfId="40" priority="14" operator="containsText" text="www.digikey.es"/>
+    <cfRule type="containsText" dxfId="42" priority="9" operator="containsText" text="tme"/>
+    <cfRule type="containsText" dxfId="41" priority="10" operator="containsText" text="mouser"/>
+    <cfRule type="containsText" dxfId="40" priority="11" operator="containsText" text="digikey"/>
+    <cfRule type="containsText" dxfId="39" priority="12" operator="containsText" text="www.tme.eu"/>
+    <cfRule type="containsText" dxfId="38" priority="13" operator="containsText" text="www.mouser.es"/>
+    <cfRule type="containsText" dxfId="37" priority="14" operator="containsText" text="www.digikey.es"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="15" operator="equal">
       <formula>"EXT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="16" operator="equal">
       <formula>"THT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="17" operator="equal">
       <formula>"SMD"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -6297,13 +4875,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>"PEDIDO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
       <formula>"SI"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6323,9 +4901,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6402,7 +4980,7 @@
     </row>
     <row r="2" spans="1:18" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>61</v>
@@ -6457,7 +5035,7 @@
     </row>
     <row r="3" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>81</v>
@@ -6506,7 +5084,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
         <v>196</v>
@@ -6559,7 +5137,7 @@
     </row>
     <row r="5" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>130</v>
@@ -6612,7 +5190,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>197</v>
@@ -6662,7 +5240,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -6709,7 +5287,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -6756,7 +5334,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B9" t="s">
         <v>199</v>
@@ -6806,7 +5384,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B10" t="s">
         <v>198</v>
@@ -6856,7 +5434,7 @@
     </row>
     <row r="11" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>200</v>
@@ -6906,38 +5484,38 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:E11">
-    <cfRule type="containsText" dxfId="33" priority="8" operator="containsText" text="EXT"/>
-    <cfRule type="containsText" dxfId="32" priority="9" operator="containsText" text="SMD"/>
-    <cfRule type="containsText" dxfId="31" priority="10" operator="containsText" text="THT"/>
+    <cfRule type="containsText" dxfId="30" priority="8" operator="containsText" text="EXT"/>
+    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="SMD"/>
+    <cfRule type="containsText" dxfId="28" priority="10" operator="containsText" text="THT"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="N"/>
-    <cfRule type="containsText" dxfId="29" priority="12" operator="containsText" text="Y"/>
+    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="N"/>
+    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="Y"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
-    <cfRule type="containsText" dxfId="28" priority="13" operator="containsText" text="www.tme.eu"/>
-    <cfRule type="containsText" dxfId="27" priority="14" operator="containsText" text="www.mouser.es"/>
-    <cfRule type="containsText" dxfId="26" priority="15" operator="containsText" text="www.digikey.es"/>
+    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="www.tme.eu"/>
+    <cfRule type="containsText" dxfId="24" priority="14" operator="containsText" text="www.mouser.es"/>
+    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="www.digikey.es"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>"SMD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>"EXT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>"THT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"SI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"PEDIDO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7045,7 +5623,7 @@
     </row>
     <row r="2" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>66</v>
@@ -7100,7 +5678,7 @@
     </row>
     <row r="3" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>66</v>
@@ -7153,7 +5731,7 @@
     </row>
     <row r="4" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>74</v>
@@ -7200,7 +5778,7 @@
     </row>
     <row r="5" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>195</v>
@@ -7247,30 +5825,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:E5">
-    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="EXT"/>
-    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="SMD"/>
-    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="THT"/>
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="EXT"/>
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="SMD"/>
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="THT"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="N"/>
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="Y"/>
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="N"/>
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Y"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="tme"/>
-    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="mouser"/>
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="digikey"/>
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="www.tme.eu"/>
-    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="www.mouser.es"/>
-    <cfRule type="containsText" dxfId="9" priority="14" operator="containsText" text="www.digikey.es"/>
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="tme"/>
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="mouser"/>
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="digikey"/>
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="www.tme.eu"/>
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="www.mouser.es"/>
+    <cfRule type="containsText" dxfId="6" priority="14" operator="containsText" text="www.digikey.es"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="8" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="102" operator="equal">
       <formula>"EXT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="103" operator="equal">
       <formula>"THT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="104" operator="equal">
       <formula>"SMD"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -7285,13 +5863,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"SI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"PEDIDO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
